--- a/src/assets/import-templates/template_phieu_nhap_tra.xlsx
+++ b/src/assets/import-templates/template_phieu_nhap_tra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doanvinhphu/Documents/Study/FPTU/Ky-9/capstone-project/warehouse_frontend/src/assets/import-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD93405D-0FF5-FC49-BC29-8B5AEA7A8728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C9BAB6-56FE-FE41-9A7F-BBD447C55647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="19380" windowHeight="20980" xr2:uid="{9FA52C3A-7928-408F-877C-18AC7D4D703A}"/>
   </bookViews>
@@ -55,10 +55,10 @@
     <t>NHẬP TRẢ</t>
   </si>
   <si>
-    <t>Mã sản phẩm cụ thể</t>
+    <t>Giá trị cần nhập</t>
   </si>
   <si>
-    <t>Giá trị cần nhập</t>
+    <t>Mã sản phẩm tồn kho</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
   <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>6</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1949,14 +1949,14 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A10:C200">
+  <conditionalFormatting sqref="A9:C200">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>A10&lt;&gt;""</formula>
+      <formula>A9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:C10 B11:C198 A11:A200">
+  <conditionalFormatting sqref="B11:C198 A11:A200">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>A9&lt;&gt;""</formula>
+      <formula>A11&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/src/assets/import-templates/template_phieu_nhap_tra.xlsx
+++ b/src/assets/import-templates/template_phieu_nhap_tra.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doanvinhphu/Documents/Study/FPTU/Ky-9/capstone-project/warehouse_frontend/src/assets/import-templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\import-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C9BAB6-56FE-FE41-9A7F-BBD447C55647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B8A24C-72A5-47E8-BB7B-11DCFC68F306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19380" windowHeight="20980" xr2:uid="{9FA52C3A-7928-408F-877C-18AC7D4D703A}"/>
+    <workbookView xWindow="3555" yWindow="4020" windowWidth="21600" windowHeight="11235" xr2:uid="{9FA52C3A-7928-408F-877C-18AC7D4D703A}"/>
   </bookViews>
   <sheets>
     <sheet name="Template nhập trả" sheetId="2" r:id="rId1"/>
+    <sheet name="Bảng đơn vị" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Số thứ tự</t>
   </si>
@@ -60,12 +64,39 @@
   <si>
     <t>Mã sản phẩm tồn kho</t>
   </si>
+  <si>
+    <t>Đơn vị tính</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>unit_type</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>Mét</t>
+  </si>
+  <si>
+    <t>KHO</t>
+  </si>
+  <si>
+    <t>Cái</t>
+  </si>
+  <si>
+    <t>NUT</t>
+  </si>
+  <si>
+    <t>VAI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +131,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,8 +153,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -216,11 +261,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -235,29 +370,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -354,6 +546,65 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Template xuất nội bộ"/>
+      <sheetName val="Bảng đơn vị"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>prefix</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>unit_type</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>CHI</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>Mét</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>KHO</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Cái</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NUT</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>Cái</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>VAI</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Mét</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -673,1290 +924,2072 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6856CC1-CBFE-4ECB-B377-3A86D1DC5596}">
-  <dimension ref="A1:C200"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="8" t="s">
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" s="7" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" s="7" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" s="7" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="C7" s="13"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="20" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="str">
+      <c r="D9" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="str">
         <f>IF(B10&lt;&gt;"", COUNTA($B$10:B10), "")</f>
         <v/>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="str">
+      <c r="D10" s="11" t="str">
+        <f>IF(B10="","",VLOOKUP(LEFT(B10,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="str">
         <f>IF(B11&lt;&gt;"", COUNTA($B$10:B11), "")</f>
         <v/>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="str">
+      <c r="D11" s="11" t="str">
+        <f>IF(B11="","",VLOOKUP(LEFT(B11,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="str">
         <f>IF(B12&lt;&gt;"", COUNTA($B$10:B12), "")</f>
         <v/>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="str">
+      <c r="D12" s="11" t="str">
+        <f>IF(B12="","",VLOOKUP(LEFT(B12,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="str">
         <f>IF(B13&lt;&gt;"", COUNTA($B$10:B13), "")</f>
         <v/>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="str">
+      <c r="D13" s="11" t="str">
+        <f>IF(B13="","",VLOOKUP(LEFT(B13,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="str">
         <f>IF(B14&lt;&gt;"", COUNTA($B$10:B14), "")</f>
         <v/>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="str">
+      <c r="D14" s="11" t="str">
+        <f>IF(B14="","",VLOOKUP(LEFT(B14,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="str">
         <f>IF(B15&lt;&gt;"", COUNTA($B$10:B15), "")</f>
         <v/>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="str">
+      <c r="D15" s="11" t="str">
+        <f>IF(B15="","",VLOOKUP(LEFT(B15,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="str">
         <f>IF(B16&lt;&gt;"", COUNTA($B$10:B16), "")</f>
         <v/>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="str">
+      <c r="D16" s="11" t="str">
+        <f>IF(B16="","",VLOOKUP(LEFT(B16,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="str">
         <f>IF(B17&lt;&gt;"", COUNTA($B$10:B17), "")</f>
         <v/>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="str">
+      <c r="D17" s="11" t="str">
+        <f>IF(B17="","",VLOOKUP(LEFT(B17,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="str">
         <f>IF(B18&lt;&gt;"", COUNTA($B$10:B18), "")</f>
         <v/>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="str">
+      <c r="D18" s="11" t="str">
+        <f>IF(B18="","",VLOOKUP(LEFT(B18,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="str">
         <f>IF(B19&lt;&gt;"", COUNTA($B$10:B19), "")</f>
         <v/>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="str">
+      <c r="D19" s="11" t="str">
+        <f>IF(B19="","",VLOOKUP(LEFT(B19,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="str">
         <f>IF(B20&lt;&gt;"", COUNTA($B$10:B20), "")</f>
         <v/>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="str">
+      <c r="D20" s="11" t="str">
+        <f>IF(B20="","",VLOOKUP(LEFT(B20,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="str">
         <f>IF(B21&lt;&gt;"", COUNTA($B$10:B21), "")</f>
         <v/>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="str">
+      <c r="D21" s="11" t="str">
+        <f>IF(B21="","",VLOOKUP(LEFT(B21,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="str">
         <f>IF(B22&lt;&gt;"", COUNTA($B$10:B22), "")</f>
         <v/>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="str">
+      <c r="D22" s="11" t="str">
+        <f>IF(B22="","",VLOOKUP(LEFT(B22,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="str">
         <f>IF(B23&lt;&gt;"", COUNTA($B$10:B23), "")</f>
         <v/>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="str">
+      <c r="D23" s="11" t="str">
+        <f>IF(B23="","",VLOOKUP(LEFT(B23,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="str">
         <f>IF(B24&lt;&gt;"", COUNTA($B$10:B24), "")</f>
         <v/>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="str">
+      <c r="D24" s="11" t="str">
+        <f>IF(B24="","",VLOOKUP(LEFT(B24,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="str">
         <f>IF(B25&lt;&gt;"", COUNTA($B$10:B25), "")</f>
         <v/>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="str">
+      <c r="D25" s="11" t="str">
+        <f>IF(B25="","",VLOOKUP(LEFT(B25,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="str">
         <f>IF(B26&lt;&gt;"", COUNTA($B$10:B26), "")</f>
         <v/>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="str">
+      <c r="D26" s="11" t="str">
+        <f>IF(B26="","",VLOOKUP(LEFT(B26,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="str">
         <f>IF(B27&lt;&gt;"", COUNTA($B$10:B27), "")</f>
         <v/>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="str">
+      <c r="D27" s="11" t="str">
+        <f>IF(B27="","",VLOOKUP(LEFT(B27,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="str">
         <f>IF(B28&lt;&gt;"", COUNTA($B$10:B28), "")</f>
         <v/>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="str">
+      <c r="D28" s="11" t="str">
+        <f>IF(B28="","",VLOOKUP(LEFT(B28,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="str">
         <f>IF(B29&lt;&gt;"", COUNTA($B$10:B29), "")</f>
         <v/>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="str">
+      <c r="D29" s="11" t="str">
+        <f>IF(B29="","",VLOOKUP(LEFT(B29,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="str">
         <f>IF(B30&lt;&gt;"", COUNTA($B$10:B30), "")</f>
         <v/>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="str">
+      <c r="D30" s="11" t="str">
+        <f>IF(B30="","",VLOOKUP(LEFT(B30,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="str">
         <f>IF(B31&lt;&gt;"", COUNTA($B$10:B31), "")</f>
         <v/>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="str">
+      <c r="D31" s="11" t="str">
+        <f>IF(B31="","",VLOOKUP(LEFT(B31,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="str">
         <f>IF(B32&lt;&gt;"", COUNTA($B$10:B32), "")</f>
         <v/>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="str">
+      <c r="D32" s="11" t="str">
+        <f>IF(B32="","",VLOOKUP(LEFT(B32,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="str">
         <f>IF(B33&lt;&gt;"", COUNTA($B$10:B33), "")</f>
         <v/>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="str">
+      <c r="D33" s="11" t="str">
+        <f>IF(B33="","",VLOOKUP(LEFT(B33,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="str">
         <f>IF(B34&lt;&gt;"", COUNTA($B$10:B34), "")</f>
         <v/>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="str">
+      <c r="D34" s="11" t="str">
+        <f>IF(B34="","",VLOOKUP(LEFT(B34,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="str">
         <f>IF(B35&lt;&gt;"", COUNTA($B$10:B35), "")</f>
         <v/>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="str">
+      <c r="D35" s="11" t="str">
+        <f>IF(B35="","",VLOOKUP(LEFT(B35,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="str">
         <f>IF(B36&lt;&gt;"", COUNTA($B$10:B36), "")</f>
         <v/>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="str">
+      <c r="D36" s="11" t="str">
+        <f>IF(B36="","",VLOOKUP(LEFT(B36,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="str">
         <f>IF(B37&lt;&gt;"", COUNTA($B$10:B37), "")</f>
         <v/>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="str">
+      <c r="D37" s="11" t="str">
+        <f>IF(B37="","",VLOOKUP(LEFT(B37,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="str">
         <f>IF(B38&lt;&gt;"", COUNTA($B$10:B38), "")</f>
         <v/>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="str">
+      <c r="D38" s="11" t="str">
+        <f>IF(B38="","",VLOOKUP(LEFT(B38,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="str">
         <f>IF(B39&lt;&gt;"", COUNTA($B$10:B39), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="str">
+      <c r="D39" s="11" t="str">
+        <f>IF(B39="","",VLOOKUP(LEFT(B39,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="str">
         <f>IF(B40&lt;&gt;"", COUNTA($B$10:B40), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="str">
+      <c r="D40" s="11" t="str">
+        <f>IF(B40="","",VLOOKUP(LEFT(B40,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="str">
         <f>IF(B41&lt;&gt;"", COUNTA($B$10:B41), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="str">
+      <c r="D41" s="11" t="str">
+        <f>IF(B41="","",VLOOKUP(LEFT(B41,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="str">
         <f>IF(B42&lt;&gt;"", COUNTA($B$10:B42), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="str">
+      <c r="D42" s="11" t="str">
+        <f>IF(B42="","",VLOOKUP(LEFT(B42,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="str">
         <f>IF(B43&lt;&gt;"", COUNTA($B$10:B43), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="str">
+      <c r="D43" s="11" t="str">
+        <f>IF(B43="","",VLOOKUP(LEFT(B43,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="str">
         <f>IF(B44&lt;&gt;"", COUNTA($B$10:B44), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="str">
+      <c r="D44" s="11" t="str">
+        <f>IF(B44="","",VLOOKUP(LEFT(B44,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="str">
         <f>IF(B45&lt;&gt;"", COUNTA($B$10:B45), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="str">
+      <c r="D45" s="11" t="str">
+        <f>IF(B45="","",VLOOKUP(LEFT(B45,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="str">
         <f>IF(B46&lt;&gt;"", COUNTA($B$10:B46), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="str">
+      <c r="D46" s="11" t="str">
+        <f>IF(B46="","",VLOOKUP(LEFT(B46,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="str">
         <f>IF(B47&lt;&gt;"", COUNTA($B$10:B47), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="str">
+      <c r="D47" s="11" t="str">
+        <f>IF(B47="","",VLOOKUP(LEFT(B47,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="str">
         <f>IF(B48&lt;&gt;"", COUNTA($B$10:B48), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="str">
+      <c r="D48" s="11" t="str">
+        <f>IF(B48="","",VLOOKUP(LEFT(B48,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="str">
         <f>IF(B49&lt;&gt;"", COUNTA($B$10:B49), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="str">
+      <c r="D49" s="11" t="str">
+        <f>IF(B49="","",VLOOKUP(LEFT(B49,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="str">
         <f>IF(B50&lt;&gt;"", COUNTA($B$10:B50), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="str">
+      <c r="D50" s="11" t="str">
+        <f>IF(B50="","",VLOOKUP(LEFT(B50,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="str">
         <f>IF(B51&lt;&gt;"", COUNTA($B$10:B51), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="str">
+      <c r="D51" s="11" t="str">
+        <f>IF(B51="","",VLOOKUP(LEFT(B51,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="str">
         <f>IF(B52&lt;&gt;"", COUNTA($B$10:B52), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="str">
+      <c r="D52" s="11" t="str">
+        <f>IF(B52="","",VLOOKUP(LEFT(B52,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="str">
         <f>IF(B53&lt;&gt;"", COUNTA($B$10:B53), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="str">
+      <c r="D53" s="11" t="str">
+        <f>IF(B53="","",VLOOKUP(LEFT(B53,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="str">
         <f>IF(B54&lt;&gt;"", COUNTA($B$10:B54), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="str">
+      <c r="D54" s="11" t="str">
+        <f>IF(B54="","",VLOOKUP(LEFT(B54,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="str">
         <f>IF(B55&lt;&gt;"", COUNTA($B$10:B55), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="str">
+      <c r="D55" s="11" t="str">
+        <f>IF(B55="","",VLOOKUP(LEFT(B55,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="str">
         <f>IF(B56&lt;&gt;"", COUNTA($B$10:B56), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="str">
+      <c r="D56" s="11" t="str">
+        <f>IF(B56="","",VLOOKUP(LEFT(B56,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="str">
         <f>IF(B57&lt;&gt;"", COUNTA($B$10:B57), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="str">
+      <c r="D57" s="11" t="str">
+        <f>IF(B57="","",VLOOKUP(LEFT(B57,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="str">
         <f>IF(B58&lt;&gt;"", COUNTA($B$10:B58), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="str">
+      <c r="D58" s="11" t="str">
+        <f>IF(B58="","",VLOOKUP(LEFT(B58,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="str">
         <f>IF(B59&lt;&gt;"", COUNTA($B$10:B59), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="str">
+      <c r="D59" s="11" t="str">
+        <f>IF(B59="","",VLOOKUP(LEFT(B59,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="str">
         <f>IF(B60&lt;&gt;"", COUNTA($B$10:B60), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="str">
+      <c r="D60" s="11" t="str">
+        <f>IF(B60="","",VLOOKUP(LEFT(B60,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="str">
         <f>IF(B61&lt;&gt;"", COUNTA($B$10:B61), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="str">
+      <c r="D61" s="11" t="str">
+        <f>IF(B61="","",VLOOKUP(LEFT(B61,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="str">
         <f>IF(B62&lt;&gt;"", COUNTA($B$10:B62), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="str">
+      <c r="D62" s="11" t="str">
+        <f>IF(B62="","",VLOOKUP(LEFT(B62,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="str">
         <f>IF(B63&lt;&gt;"", COUNTA($B$10:B63), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="str">
+      <c r="D63" s="11" t="str">
+        <f>IF(B63="","",VLOOKUP(LEFT(B63,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="str">
         <f>IF(B64&lt;&gt;"", COUNTA($B$10:B64), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="str">
+      <c r="D64" s="11" t="str">
+        <f>IF(B64="","",VLOOKUP(LEFT(B64,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="str">
         <f>IF(B65&lt;&gt;"", COUNTA($B$10:B65), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="str">
+      <c r="D65" s="11" t="str">
+        <f>IF(B65="","",VLOOKUP(LEFT(B65,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="str">
         <f>IF(B66&lt;&gt;"", COUNTA($B$10:B66), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="str">
+      <c r="D66" s="11" t="str">
+        <f>IF(B66="","",VLOOKUP(LEFT(B66,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="str">
         <f>IF(B67&lt;&gt;"", COUNTA($B$10:B67), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="str">
+      <c r="D67" s="11" t="str">
+        <f>IF(B67="","",VLOOKUP(LEFT(B67,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="str">
         <f>IF(B68&lt;&gt;"", COUNTA($B$10:B68), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="str">
+      <c r="D68" s="11" t="str">
+        <f>IF(B68="","",VLOOKUP(LEFT(B68,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="str">
         <f>IF(B69&lt;&gt;"", COUNTA($B$10:B69), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="str">
+      <c r="D69" s="11" t="str">
+        <f>IF(B69="","",VLOOKUP(LEFT(B69,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="str">
         <f>IF(B70&lt;&gt;"", COUNTA($B$10:B70), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="str">
+      <c r="D70" s="11" t="str">
+        <f>IF(B70="","",VLOOKUP(LEFT(B70,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="str">
         <f>IF(B71&lt;&gt;"", COUNTA($B$10:B71), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="str">
+      <c r="D71" s="11" t="str">
+        <f>IF(B71="","",VLOOKUP(LEFT(B71,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="str">
         <f>IF(B72&lt;&gt;"", COUNTA($B$10:B72), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="str">
+      <c r="D72" s="11" t="str">
+        <f>IF(B72="","",VLOOKUP(LEFT(B72,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="str">
         <f>IF(B73&lt;&gt;"", COUNTA($B$10:B73), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="str">
+      <c r="D73" s="11" t="str">
+        <f>IF(B73="","",VLOOKUP(LEFT(B73,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="str">
         <f>IF(B74&lt;&gt;"", COUNTA($B$10:B74), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="str">
+      <c r="D74" s="11" t="str">
+        <f>IF(B74="","",VLOOKUP(LEFT(B74,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="str">
         <f>IF(B75&lt;&gt;"", COUNTA($B$10:B75), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="str">
+      <c r="D75" s="11" t="str">
+        <f>IF(B75="","",VLOOKUP(LEFT(B75,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="str">
         <f>IF(B76&lt;&gt;"", COUNTA($B$10:B76), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="str">
+      <c r="D76" s="11" t="str">
+        <f>IF(B76="","",VLOOKUP(LEFT(B76,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="str">
         <f>IF(B77&lt;&gt;"", COUNTA($B$10:B77), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="str">
+      <c r="D77" s="11" t="str">
+        <f>IF(B77="","",VLOOKUP(LEFT(B77,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="str">
         <f>IF(B78&lt;&gt;"", COUNTA($B$10:B78), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="str">
+      <c r="D78" s="11" t="str">
+        <f>IF(B78="","",VLOOKUP(LEFT(B78,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="str">
         <f>IF(B79&lt;&gt;"", COUNTA($B$10:B79), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="str">
+      <c r="D79" s="11" t="str">
+        <f>IF(B79="","",VLOOKUP(LEFT(B79,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="str">
         <f>IF(B80&lt;&gt;"", COUNTA($B$10:B80), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="str">
+      <c r="D80" s="11" t="str">
+        <f>IF(B80="","",VLOOKUP(LEFT(B80,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="str">
         <f>IF(B81&lt;&gt;"", COUNTA($B$10:B81), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="str">
+      <c r="D81" s="11" t="str">
+        <f>IF(B81="","",VLOOKUP(LEFT(B81,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="str">
         <f>IF(B82&lt;&gt;"", COUNTA($B$10:B82), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="str">
+      <c r="D82" s="11" t="str">
+        <f>IF(B82="","",VLOOKUP(LEFT(B82,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="str">
         <f>IF(B83&lt;&gt;"", COUNTA($B$10:B83), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="str">
+      <c r="D83" s="11" t="str">
+        <f>IF(B83="","",VLOOKUP(LEFT(B83,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="str">
         <f>IF(B84&lt;&gt;"", COUNTA($B$10:B84), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="str">
+      <c r="D84" s="11" t="str">
+        <f>IF(B84="","",VLOOKUP(LEFT(B84,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="str">
         <f>IF(B85&lt;&gt;"", COUNTA($B$10:B85), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="str">
+      <c r="D85" s="11" t="str">
+        <f>IF(B85="","",VLOOKUP(LEFT(B85,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="str">
         <f>IF(B86&lt;&gt;"", COUNTA($B$10:B86), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="str">
+      <c r="D86" s="11" t="str">
+        <f>IF(B86="","",VLOOKUP(LEFT(B86,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="str">
         <f>IF(B87&lt;&gt;"", COUNTA($B$10:B87), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="str">
+      <c r="D87" s="11" t="str">
+        <f>IF(B87="","",VLOOKUP(LEFT(B87,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="str">
         <f>IF(B88&lt;&gt;"", COUNTA($B$10:B88), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="str">
+      <c r="D88" s="11" t="str">
+        <f>IF(B88="","",VLOOKUP(LEFT(B88,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="str">
         <f>IF(B89&lt;&gt;"", COUNTA($B$10:B89), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="str">
+      <c r="D89" s="11" t="str">
+        <f>IF(B89="","",VLOOKUP(LEFT(B89,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="str">
         <f>IF(B90&lt;&gt;"", COUNTA($B$10:B90), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="str">
+      <c r="D90" s="11" t="str">
+        <f>IF(B90="","",VLOOKUP(LEFT(B90,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="str">
         <f>IF(B91&lt;&gt;"", COUNTA($B$10:B91), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="str">
+      <c r="D91" s="11" t="str">
+        <f>IF(B91="","",VLOOKUP(LEFT(B91,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="str">
         <f>IF(B92&lt;&gt;"", COUNTA($B$10:B92), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="str">
+      <c r="D92" s="11" t="str">
+        <f>IF(B92="","",VLOOKUP(LEFT(B92,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="str">
         <f>IF(B93&lt;&gt;"", COUNTA($B$10:B93), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="str">
+      <c r="D93" s="11" t="str">
+        <f>IF(B93="","",VLOOKUP(LEFT(B93,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="str">
         <f>IF(B94&lt;&gt;"", COUNTA($B$10:B94), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="str">
+      <c r="D94" s="11" t="str">
+        <f>IF(B94="","",VLOOKUP(LEFT(B94,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="12" t="str">
         <f>IF(B95&lt;&gt;"", COUNTA($B$10:B95), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="str">
+      <c r="D95" s="11" t="str">
+        <f>IF(B95="","",VLOOKUP(LEFT(B95,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="str">
         <f>IF(B96&lt;&gt;"", COUNTA($B$10:B96), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="5" t="str">
+      <c r="D96" s="11" t="str">
+        <f>IF(B96="","",VLOOKUP(LEFT(B96,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="str">
         <f>IF(B97&lt;&gt;"", COUNTA($B$10:B97), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="str">
+      <c r="D97" s="11" t="str">
+        <f>IF(B97="","",VLOOKUP(LEFT(B97,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="12" t="str">
         <f>IF(B98&lt;&gt;"", COUNTA($B$10:B98), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5" t="str">
+      <c r="D98" s="11" t="str">
+        <f>IF(B98="","",VLOOKUP(LEFT(B98,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="str">
         <f>IF(B99&lt;&gt;"", COUNTA($B$10:B99), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="5" t="str">
+      <c r="D99" s="11" t="str">
+        <f>IF(B99="","",VLOOKUP(LEFT(B99,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="12" t="str">
         <f>IF(B100&lt;&gt;"", COUNTA($B$10:B100), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="str">
+      <c r="D100" s="11" t="str">
+        <f>IF(B100="","",VLOOKUP(LEFT(B100,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="str">
         <f>IF(B101&lt;&gt;"", COUNTA($B$10:B101), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="str">
+      <c r="D101" s="11" t="str">
+        <f>IF(B101="","",VLOOKUP(LEFT(B101,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="str">
         <f>IF(B102&lt;&gt;"", COUNTA($B$10:B102), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5" t="str">
+      <c r="D102" s="11" t="str">
+        <f>IF(B102="","",VLOOKUP(LEFT(B102,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="str">
         <f>IF(B103&lt;&gt;"", COUNTA($B$10:B103), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="5" t="str">
+      <c r="D103" s="11" t="str">
+        <f>IF(B103="","",VLOOKUP(LEFT(B103,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="str">
         <f>IF(B104&lt;&gt;"", COUNTA($B$10:B104), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="5" t="str">
+      <c r="D104" s="11" t="str">
+        <f>IF(B104="","",VLOOKUP(LEFT(B104,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="str">
         <f>IF(B105&lt;&gt;"", COUNTA($B$10:B105), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5" t="str">
+      <c r="D105" s="11" t="str">
+        <f>IF(B105="","",VLOOKUP(LEFT(B105,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="str">
         <f>IF(B106&lt;&gt;"", COUNTA($B$10:B106), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="5" t="str">
+      <c r="D106" s="11" t="str">
+        <f>IF(B106="","",VLOOKUP(LEFT(B106,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="str">
         <f>IF(B107&lt;&gt;"", COUNTA($B$10:B107), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="5" t="str">
+      <c r="D107" s="11" t="str">
+        <f>IF(B107="","",VLOOKUP(LEFT(B107,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="str">
         <f>IF(B108&lt;&gt;"", COUNTA($B$10:B108), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="5" t="str">
+      <c r="D108" s="11" t="str">
+        <f>IF(B108="","",VLOOKUP(LEFT(B108,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="str">
         <f>IF(B109&lt;&gt;"", COUNTA($B$10:B109), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="str">
+      <c r="D109" s="11" t="str">
+        <f>IF(B109="","",VLOOKUP(LEFT(B109,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="str">
         <f>IF(B110&lt;&gt;"", COUNTA($B$10:B110), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="5" t="str">
+      <c r="D110" s="11" t="str">
+        <f>IF(B110="","",VLOOKUP(LEFT(B110,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="str">
         <f>IF(B111&lt;&gt;"", COUNTA($B$10:B111), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="5" t="str">
+      <c r="D111" s="11" t="str">
+        <f>IF(B111="","",VLOOKUP(LEFT(B111,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="str">
         <f>IF(B112&lt;&gt;"", COUNTA($B$10:B112), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="5" t="str">
+      <c r="D112" s="11" t="str">
+        <f>IF(B112="","",VLOOKUP(LEFT(B112,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="str">
         <f>IF(B113&lt;&gt;"", COUNTA($B$10:B113), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="5" t="str">
+      <c r="D113" s="11" t="str">
+        <f>IF(B113="","",VLOOKUP(LEFT(B113,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="str">
         <f>IF(B114&lt;&gt;"", COUNTA($B$10:B114), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="5" t="str">
+      <c r="D114" s="11" t="str">
+        <f>IF(B114="","",VLOOKUP(LEFT(B114,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="12" t="str">
         <f>IF(B115&lt;&gt;"", COUNTA($B$10:B115), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="5" t="str">
+      <c r="D115" s="11" t="str">
+        <f>IF(B115="","",VLOOKUP(LEFT(B115,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="str">
         <f>IF(B116&lt;&gt;"", COUNTA($B$10:B116), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="5" t="str">
+      <c r="D116" s="11" t="str">
+        <f>IF(B116="","",VLOOKUP(LEFT(B116,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="str">
         <f>IF(B117&lt;&gt;"", COUNTA($B$10:B117), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="5" t="str">
+      <c r="D117" s="11" t="str">
+        <f>IF(B117="","",VLOOKUP(LEFT(B117,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="str">
         <f>IF(B118&lt;&gt;"", COUNTA($B$10:B118), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="5" t="str">
+      <c r="D118" s="11" t="str">
+        <f>IF(B118="","",VLOOKUP(LEFT(B118,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="12" t="str">
         <f>IF(B119&lt;&gt;"", COUNTA($B$10:B119), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="5" t="str">
+      <c r="D119" s="11" t="str">
+        <f>IF(B119="","",VLOOKUP(LEFT(B119,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="12" t="str">
         <f>IF(B120&lt;&gt;"", COUNTA($B$10:B120), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="5" t="str">
+      <c r="D120" s="11" t="str">
+        <f>IF(B120="","",VLOOKUP(LEFT(B120,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="str">
         <f>IF(B121&lt;&gt;"", COUNTA($B$10:B121), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="5" t="str">
+      <c r="D121" s="11" t="str">
+        <f>IF(B121="","",VLOOKUP(LEFT(B121,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="str">
         <f>IF(B122&lt;&gt;"", COUNTA($B$10:B122), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="5" t="str">
+      <c r="D122" s="11" t="str">
+        <f>IF(B122="","",VLOOKUP(LEFT(B122,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="12" t="str">
         <f>IF(B123&lt;&gt;"", COUNTA($B$10:B123), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="5" t="str">
+      <c r="D123" s="11" t="str">
+        <f>IF(B123="","",VLOOKUP(LEFT(B123,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="12" t="str">
         <f>IF(B124&lt;&gt;"", COUNTA($B$10:B124), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="5" t="str">
+      <c r="D124" s="11" t="str">
+        <f>IF(B124="","",VLOOKUP(LEFT(B124,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="12" t="str">
         <f>IF(B125&lt;&gt;"", COUNTA($B$10:B125), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="5" t="str">
+      <c r="D125" s="11" t="str">
+        <f>IF(B125="","",VLOOKUP(LEFT(B125,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="12" t="str">
         <f>IF(B126&lt;&gt;"", COUNTA($B$10:B126), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="5" t="str">
+      <c r="D126" s="11" t="str">
+        <f>IF(B126="","",VLOOKUP(LEFT(B126,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="12" t="str">
         <f>IF(B127&lt;&gt;"", COUNTA($B$10:B127), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5" t="str">
+      <c r="D127" s="11" t="str">
+        <f>IF(B127="","",VLOOKUP(LEFT(B127,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="12" t="str">
         <f>IF(B128&lt;&gt;"", COUNTA($B$10:B128), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5" t="str">
+      <c r="D128" s="11" t="str">
+        <f>IF(B128="","",VLOOKUP(LEFT(B128,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="12" t="str">
         <f>IF(B129&lt;&gt;"", COUNTA($B$10:B129), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="5" t="str">
+      <c r="D129" s="11" t="str">
+        <f>IF(B129="","",VLOOKUP(LEFT(B129,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="12" t="str">
         <f>IF(B130&lt;&gt;"", COUNTA($B$10:B130), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="5" t="str">
+      <c r="D130" s="11" t="str">
+        <f>IF(B130="","",VLOOKUP(LEFT(B130,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="str">
         <f>IF(B131&lt;&gt;"", COUNTA($B$10:B131), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="5" t="str">
+      <c r="D131" s="11" t="str">
+        <f>IF(B131="","",VLOOKUP(LEFT(B131,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="12" t="str">
         <f>IF(B132&lt;&gt;"", COUNTA($B$10:B132), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="5" t="str">
+      <c r="D132" s="11" t="str">
+        <f>IF(B132="","",VLOOKUP(LEFT(B132,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="12" t="str">
         <f>IF(B133&lt;&gt;"", COUNTA($B$10:B133), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="5" t="str">
+      <c r="D133" s="11" t="str">
+        <f>IF(B133="","",VLOOKUP(LEFT(B133,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="12" t="str">
         <f>IF(B134&lt;&gt;"", COUNTA($B$10:B134), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="5" t="str">
+      <c r="D134" s="11" t="str">
+        <f>IF(B134="","",VLOOKUP(LEFT(B134,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="12" t="str">
         <f>IF(B135&lt;&gt;"", COUNTA($B$10:B135), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="5" t="str">
+      <c r="D135" s="11" t="str">
+        <f>IF(B135="","",VLOOKUP(LEFT(B135,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="12" t="str">
         <f>IF(B136&lt;&gt;"", COUNTA($B$10:B136), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="5" t="str">
+      <c r="D136" s="11" t="str">
+        <f>IF(B136="","",VLOOKUP(LEFT(B136,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="12" t="str">
         <f>IF(B137&lt;&gt;"", COUNTA($B$10:B137), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="5" t="str">
+      <c r="D137" s="11" t="str">
+        <f>IF(B137="","",VLOOKUP(LEFT(B137,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="12" t="str">
         <f>IF(B138&lt;&gt;"", COUNTA($B$10:B138), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="5" t="str">
+      <c r="D138" s="11" t="str">
+        <f>IF(B138="","",VLOOKUP(LEFT(B138,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="12" t="str">
         <f>IF(B139&lt;&gt;"", COUNTA($B$10:B139), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="5" t="str">
+      <c r="D139" s="11" t="str">
+        <f>IF(B139="","",VLOOKUP(LEFT(B139,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="12" t="str">
         <f>IF(B140&lt;&gt;"", COUNTA($B$10:B140), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="5" t="str">
+      <c r="D140" s="11" t="str">
+        <f>IF(B140="","",VLOOKUP(LEFT(B140,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="12" t="str">
         <f>IF(B141&lt;&gt;"", COUNTA($B$10:B141), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="5" t="str">
+      <c r="D141" s="11" t="str">
+        <f>IF(B141="","",VLOOKUP(LEFT(B141,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="12" t="str">
         <f>IF(B142&lt;&gt;"", COUNTA($B$10:B142), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="5" t="str">
+      <c r="D142" s="11" t="str">
+        <f>IF(B142="","",VLOOKUP(LEFT(B142,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="12" t="str">
         <f>IF(B143&lt;&gt;"", COUNTA($B$10:B143), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="5" t="str">
+      <c r="D143" s="11" t="str">
+        <f>IF(B143="","",VLOOKUP(LEFT(B143,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="12" t="str">
         <f>IF(B144&lt;&gt;"", COUNTA($B$10:B144), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="5" t="str">
+      <c r="D144" s="11" t="str">
+        <f>IF(B144="","",VLOOKUP(LEFT(B144,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="12" t="str">
         <f>IF(B145&lt;&gt;"", COUNTA($B$10:B145), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="5" t="str">
+      <c r="D145" s="11" t="str">
+        <f>IF(B145="","",VLOOKUP(LEFT(B145,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="12" t="str">
         <f>IF(B146&lt;&gt;"", COUNTA($B$10:B146), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="5" t="str">
+      <c r="D146" s="11" t="str">
+        <f>IF(B146="","",VLOOKUP(LEFT(B146,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="12" t="str">
         <f>IF(B147&lt;&gt;"", COUNTA($B$10:B147), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="5" t="str">
+      <c r="D147" s="11" t="str">
+        <f>IF(B147="","",VLOOKUP(LEFT(B147,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="12" t="str">
         <f>IF(B148&lt;&gt;"", COUNTA($B$10:B148), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="5" t="str">
+      <c r="D148" s="11" t="str">
+        <f>IF(B148="","",VLOOKUP(LEFT(B148,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="12" t="str">
         <f>IF(B149&lt;&gt;"", COUNTA($B$10:B149), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="5" t="str">
+      <c r="D149" s="11" t="str">
+        <f>IF(B149="","",VLOOKUP(LEFT(B149,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="12" t="str">
         <f>IF(B150&lt;&gt;"", COUNTA($B$10:B150), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="5" t="str">
+      <c r="D150" s="11" t="str">
+        <f>IF(B150="","",VLOOKUP(LEFT(B150,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="12" t="str">
         <f>IF(B151&lt;&gt;"", COUNTA($B$10:B151), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="5" t="str">
+      <c r="D151" s="11" t="str">
+        <f>IF(B151="","",VLOOKUP(LEFT(B151,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="12" t="str">
         <f>IF(B152&lt;&gt;"", COUNTA($B$10:B152), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="5" t="str">
+      <c r="D152" s="11" t="str">
+        <f>IF(B152="","",VLOOKUP(LEFT(B152,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="12" t="str">
         <f>IF(B153&lt;&gt;"", COUNTA($B$10:B153), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="5" t="str">
+      <c r="D153" s="11" t="str">
+        <f>IF(B153="","",VLOOKUP(LEFT(B153,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="12" t="str">
         <f>IF(B154&lt;&gt;"", COUNTA($B$10:B154), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="5" t="str">
+      <c r="D154" s="11" t="str">
+        <f>IF(B154="","",VLOOKUP(LEFT(B154,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="12" t="str">
         <f>IF(B155&lt;&gt;"", COUNTA($B$10:B155), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="5" t="str">
+      <c r="D155" s="11" t="str">
+        <f>IF(B155="","",VLOOKUP(LEFT(B155,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="12" t="str">
         <f>IF(B156&lt;&gt;"", COUNTA($B$10:B156), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="5" t="str">
+      <c r="D156" s="11" t="str">
+        <f>IF(B156="","",VLOOKUP(LEFT(B156,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="12" t="str">
         <f>IF(B157&lt;&gt;"", COUNTA($B$10:B157), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="5" t="str">
+      <c r="D157" s="11" t="str">
+        <f>IF(B157="","",VLOOKUP(LEFT(B157,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="12" t="str">
         <f>IF(B158&lt;&gt;"", COUNTA($B$10:B158), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="5" t="str">
+      <c r="D158" s="11" t="str">
+        <f>IF(B158="","",VLOOKUP(LEFT(B158,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="12" t="str">
         <f>IF(B159&lt;&gt;"", COUNTA($B$10:B159), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="5" t="str">
+      <c r="D159" s="11" t="str">
+        <f>IF(B159="","",VLOOKUP(LEFT(B159,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="12" t="str">
         <f>IF(B160&lt;&gt;"", COUNTA($B$10:B160), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="5" t="str">
+      <c r="D160" s="11" t="str">
+        <f>IF(B160="","",VLOOKUP(LEFT(B160,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="12" t="str">
         <f>IF(B161&lt;&gt;"", COUNTA($B$10:B161), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="5" t="str">
+      <c r="D161" s="11" t="str">
+        <f>IF(B161="","",VLOOKUP(LEFT(B161,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="12" t="str">
         <f>IF(B162&lt;&gt;"", COUNTA($B$10:B162), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="5" t="str">
+      <c r="D162" s="11" t="str">
+        <f>IF(B162="","",VLOOKUP(LEFT(B162,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="12" t="str">
         <f>IF(B163&lt;&gt;"", COUNTA($B$10:B163), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="5" t="str">
+      <c r="D163" s="11" t="str">
+        <f>IF(B163="","",VLOOKUP(LEFT(B163,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="12" t="str">
         <f>IF(B164&lt;&gt;"", COUNTA($B$10:B164), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="5" t="str">
+      <c r="D164" s="11" t="str">
+        <f>IF(B164="","",VLOOKUP(LEFT(B164,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="12" t="str">
         <f>IF(B165&lt;&gt;"", COUNTA($B$10:B165), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="5" t="str">
+      <c r="D165" s="11" t="str">
+        <f>IF(B165="","",VLOOKUP(LEFT(B165,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="12" t="str">
         <f>IF(B166&lt;&gt;"", COUNTA($B$10:B166), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="5" t="str">
+      <c r="D166" s="11" t="str">
+        <f>IF(B166="","",VLOOKUP(LEFT(B166,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="12" t="str">
         <f>IF(B167&lt;&gt;"", COUNTA($B$10:B167), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="5" t="str">
+      <c r="D167" s="11" t="str">
+        <f>IF(B167="","",VLOOKUP(LEFT(B167,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="12" t="str">
         <f>IF(B168&lt;&gt;"", COUNTA($B$10:B168), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="5" t="str">
+      <c r="D168" s="11" t="str">
+        <f>IF(B168="","",VLOOKUP(LEFT(B168,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="12" t="str">
         <f>IF(B169&lt;&gt;"", COUNTA($B$10:B169), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="5" t="str">
+      <c r="D169" s="11" t="str">
+        <f>IF(B169="","",VLOOKUP(LEFT(B169,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="12" t="str">
         <f>IF(B170&lt;&gt;"", COUNTA($B$10:B170), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="5" t="str">
+      <c r="D170" s="11" t="str">
+        <f>IF(B170="","",VLOOKUP(LEFT(B170,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="12" t="str">
         <f>IF(B171&lt;&gt;"", COUNTA($B$10:B171), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="5" t="str">
+      <c r="D171" s="11" t="str">
+        <f>IF(B171="","",VLOOKUP(LEFT(B171,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="12" t="str">
         <f>IF(B172&lt;&gt;"", COUNTA($B$10:B172), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="5" t="str">
+      <c r="D172" s="11" t="str">
+        <f>IF(B172="","",VLOOKUP(LEFT(B172,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="12" t="str">
         <f>IF(B173&lt;&gt;"", COUNTA($B$10:B173), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="5" t="str">
+      <c r="D173" s="11" t="str">
+        <f>IF(B173="","",VLOOKUP(LEFT(B173,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="12" t="str">
         <f>IF(B174&lt;&gt;"", COUNTA($B$10:B174), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="5" t="str">
+      <c r="D174" s="11" t="str">
+        <f>IF(B174="","",VLOOKUP(LEFT(B174,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="12" t="str">
         <f>IF(B175&lt;&gt;"", COUNTA($B$10:B175), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="5" t="str">
+      <c r="D175" s="11" t="str">
+        <f>IF(B175="","",VLOOKUP(LEFT(B175,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="12" t="str">
         <f>IF(B176&lt;&gt;"", COUNTA($B$10:B176), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="5" t="str">
+      <c r="D176" s="11" t="str">
+        <f>IF(B176="","",VLOOKUP(LEFT(B176,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="12" t="str">
         <f>IF(B177&lt;&gt;"", COUNTA($B$10:B177), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="5" t="str">
+      <c r="D177" s="11" t="str">
+        <f>IF(B177="","",VLOOKUP(LEFT(B177,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="12" t="str">
         <f>IF(B178&lt;&gt;"", COUNTA($B$10:B178), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="5" t="str">
+      <c r="D178" s="11" t="str">
+        <f>IF(B178="","",VLOOKUP(LEFT(B178,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="12" t="str">
         <f>IF(B179&lt;&gt;"", COUNTA($B$10:B179), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="5" t="str">
+      <c r="D179" s="11" t="str">
+        <f>IF(B179="","",VLOOKUP(LEFT(B179,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="12" t="str">
         <f>IF(B180&lt;&gt;"", COUNTA($B$10:B180), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="5" t="str">
+      <c r="D180" s="11" t="str">
+        <f>IF(B180="","",VLOOKUP(LEFT(B180,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="12" t="str">
         <f>IF(B181&lt;&gt;"", COUNTA($B$10:B181), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="5" t="str">
+      <c r="D181" s="11" t="str">
+        <f>IF(B181="","",VLOOKUP(LEFT(B181,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="12" t="str">
         <f>IF(B182&lt;&gt;"", COUNTA($B$10:B182), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="5" t="str">
+      <c r="D182" s="11" t="str">
+        <f>IF(B182="","",VLOOKUP(LEFT(B182,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="12" t="str">
         <f>IF(B183&lt;&gt;"", COUNTA($B$10:B183), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="5" t="str">
+      <c r="D183" s="11" t="str">
+        <f>IF(B183="","",VLOOKUP(LEFT(B183,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="12" t="str">
         <f>IF(B184&lt;&gt;"", COUNTA($B$10:B184), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="5" t="str">
+      <c r="D184" s="11" t="str">
+        <f>IF(B184="","",VLOOKUP(LEFT(B184,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="12" t="str">
         <f>IF(B185&lt;&gt;"", COUNTA($B$10:B185), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="5" t="str">
+      <c r="D185" s="11" t="str">
+        <f>IF(B185="","",VLOOKUP(LEFT(B185,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="12" t="str">
         <f>IF(B186&lt;&gt;"", COUNTA($B$10:B186), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="5" t="str">
+      <c r="D186" s="11" t="str">
+        <f>IF(B186="","",VLOOKUP(LEFT(B186,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="12" t="str">
         <f>IF(B187&lt;&gt;"", COUNTA($B$10:B187), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="5" t="str">
+      <c r="D187" s="11" t="str">
+        <f>IF(B187="","",VLOOKUP(LEFT(B187,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="12" t="str">
         <f>IF(B188&lt;&gt;"", COUNTA($B$10:B188), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="5" t="str">
+      <c r="D188" s="11" t="str">
+        <f>IF(B188="","",VLOOKUP(LEFT(B188,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="12" t="str">
         <f>IF(B189&lt;&gt;"", COUNTA($B$10:B189), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="5" t="str">
+      <c r="D189" s="11" t="str">
+        <f>IF(B189="","",VLOOKUP(LEFT(B189,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="12" t="str">
         <f>IF(B190&lt;&gt;"", COUNTA($B$10:B190), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="5" t="str">
+      <c r="D190" s="11" t="str">
+        <f>IF(B190="","",VLOOKUP(LEFT(B190,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="12" t="str">
         <f>IF(B191&lt;&gt;"", COUNTA($B$10:B191), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="5" t="str">
+      <c r="D191" s="11" t="str">
+        <f>IF(B191="","",VLOOKUP(LEFT(B191,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="12" t="str">
         <f>IF(B192&lt;&gt;"", COUNTA($B$10:B192), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="5" t="str">
+      <c r="D192" s="11" t="str">
+        <f>IF(B192="","",VLOOKUP(LEFT(B192,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="12" t="str">
         <f>IF(B193&lt;&gt;"", COUNTA($B$10:B193), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="5" t="str">
+      <c r="D193" s="11" t="str">
+        <f>IF(B193="","",VLOOKUP(LEFT(B193,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="12" t="str">
         <f>IF(B194&lt;&gt;"", COUNTA($B$10:B194), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="5" t="str">
+      <c r="D194" s="11" t="str">
+        <f>IF(B194="","",VLOOKUP(LEFT(B194,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="12" t="str">
         <f>IF(B195&lt;&gt;"", COUNTA($B$10:B195), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="5" t="str">
+      <c r="D195" s="11" t="str">
+        <f>IF(B195="","",VLOOKUP(LEFT(B195,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="12" t="str">
         <f>IF(B196&lt;&gt;"", COUNTA($B$10:B196), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="5" t="str">
+      <c r="D196" s="11" t="str">
+        <f>IF(B196="","",VLOOKUP(LEFT(B196,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="12" t="str">
         <f>IF(B197&lt;&gt;"", COUNTA($B$10:B197), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="5" t="str">
+      <c r="D197" s="11" t="str">
+        <f>IF(B197="","",VLOOKUP(LEFT(B197,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="12" t="str">
         <f>IF(B198&lt;&gt;"", COUNTA($B$10:B198), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="5" t="str">
+      <c r="D198" s="11" t="str">
+        <f>IF(B198="","",VLOOKUP(LEFT(B198,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="12" t="str">
         <f>IF(B199&lt;&gt;"", COUNTA($B$10:B199), "")</f>
         <v/>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="5" t="str">
+      <c r="D199" s="11" t="str">
+        <f>IF(B199="","",VLOOKUP(LEFT(B199,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="12" t="str">
         <f>IF(B200&lt;&gt;"", COUNTA($B$10:B200), "")</f>
         <v/>
       </c>
+      <c r="D200" s="11" t="str">
+        <f>IF(B200="","",VLOOKUP(LEFT(B200,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="FnhYZvCHk2USRnQae0rBRqK7UZD8XjsRr06VbJFAVqEJwhCcII/ZCGVWDODTZKrZe3HWcfp4oIWd6hfmQVeSZw==" saltValue="GHFpVQWWwdZWgXxP5B709w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="A9:C200">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>A9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C198 A11:A200">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>A11&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>D9&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D200">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1967,4 +3000,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6F3A8D-1587-4029-9A08-97829BD9D66D}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/assets/import-templates/template_phieu_nhap_tra.xlsx
+++ b/src/assets/import-templates/template_phieu_nhap_tra.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\import-templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doanvinhphu/Documents/Study/FPTU/Ky-9/capstone-project/warehouse_frontend/src/assets/import-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B8A24C-72A5-47E8-BB7B-11DCFC68F306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B879CD-082E-4F45-A6E8-B741DDC77EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="4020" windowWidth="21600" windowHeight="11235" xr2:uid="{9FA52C3A-7928-408F-877C-18AC7D4D703A}"/>
+    <workbookView xWindow="3560" yWindow="4020" windowWidth="21600" windowHeight="11240" xr2:uid="{9FA52C3A-7928-408F-877C-18AC7D4D703A}"/>
   </bookViews>
   <sheets>
     <sheet name="Template nhập trả" sheetId="2" r:id="rId1"/>
     <sheet name="Bảng đơn vị" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Số thứ tự</t>
   </si>
@@ -91,12 +88,15 @@
   <si>
     <t>VAI</t>
   </si>
+  <si>
+    <t>nhập trả lại hàng sau xuất nội bộ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +139,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -355,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -388,27 +393,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,65 +552,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Template xuất nội bộ"/>
-      <sheetName val="Bảng đơn vị"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>prefix</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>unit_type</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>CHI</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Mét</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>KHO</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>Cái</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NUT</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>Cái</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>VAI</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Mét</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -927,46 +874,46 @@
   <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="24" style="11" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12"/>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
     </row>
-    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="1:6" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:6" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
@@ -975,20 +922,22 @@
       </c>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="13"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:6" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="11" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:6" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="11" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
@@ -1002,79 +951,79 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="str">
         <f>IF(B10&lt;&gt;"", COUNTA($B$10:B10), "")</f>
         <v/>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="4"/>
       <c r="D10" s="11" t="str">
-        <f>IF(B10="","",VLOOKUP(LEFT(B10,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(B10="","",VLOOKUP(MID(B10,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="str">
         <f>IF(B11&lt;&gt;"", COUNTA($B$10:B11), "")</f>
         <v/>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="4"/>
       <c r="D11" s="11" t="str">
-        <f>IF(B11="","",VLOOKUP(LEFT(B11,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(B11="","",VLOOKUP(MID(B11,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="str">
         <f>IF(B12&lt;&gt;"", COUNTA($B$10:B12), "")</f>
         <v/>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="4"/>
       <c r="D12" s="11" t="str">
-        <f>IF(B12="","",VLOOKUP(LEFT(B12,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(B12="","",VLOOKUP(MID(B12,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="str">
         <f>IF(B13&lt;&gt;"", COUNTA($B$10:B13), "")</f>
         <v/>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="4"/>
       <c r="D13" s="11" t="str">
-        <f>IF(B13="","",VLOOKUP(LEFT(B13,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(B13="","",VLOOKUP(MID(B13,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="str">
         <f>IF(B14&lt;&gt;"", COUNTA($B$10:B14), "")</f>
         <v/>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="4"/>
       <c r="D14" s="11" t="str">
-        <f>IF(B14="","",VLOOKUP(LEFT(B14,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(B14="","",VLOOKUP(MID(B14,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="str">
         <f>IF(B15&lt;&gt;"", COUNTA($B$10:B15), "")</f>
         <v/>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="4"/>
       <c r="D15" s="11" t="str">
-        <f>IF(B15="","",VLOOKUP(LEFT(B15,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(B15="","",VLOOKUP(MID(B15,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="str">
         <f>IF(B16&lt;&gt;"", COUNTA($B$10:B16), "")</f>
         <v/>
@@ -1082,11 +1031,11 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="11" t="str">
-        <f>IF(B16="","",VLOOKUP(LEFT(B16,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B16="","",VLOOKUP(MID(B16,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="str">
         <f>IF(B17&lt;&gt;"", COUNTA($B$10:B17), "")</f>
         <v/>
@@ -1094,11 +1043,11 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="11" t="str">
-        <f>IF(B17="","",VLOOKUP(LEFT(B17,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B17="","",VLOOKUP(MID(B17,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="str">
         <f>IF(B18&lt;&gt;"", COUNTA($B$10:B18), "")</f>
         <v/>
@@ -1106,11 +1055,11 @@
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="11" t="str">
-        <f>IF(B18="","",VLOOKUP(LEFT(B18,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B18="","",VLOOKUP(MID(B18,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="str">
         <f>IF(B19&lt;&gt;"", COUNTA($B$10:B19), "")</f>
         <v/>
@@ -1118,11 +1067,11 @@
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="11" t="str">
-        <f>IF(B19="","",VLOOKUP(LEFT(B19,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B19="","",VLOOKUP(MID(B19,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="str">
         <f>IF(B20&lt;&gt;"", COUNTA($B$10:B20), "")</f>
         <v/>
@@ -1130,11 +1079,11 @@
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="11" t="str">
-        <f>IF(B20="","",VLOOKUP(LEFT(B20,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B20="","",VLOOKUP(MID(B20,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="str">
         <f>IF(B21&lt;&gt;"", COUNTA($B$10:B21), "")</f>
         <v/>
@@ -1142,11 +1091,11 @@
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="11" t="str">
-        <f>IF(B21="","",VLOOKUP(LEFT(B21,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B21="","",VLOOKUP(MID(B21,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="str">
         <f>IF(B22&lt;&gt;"", COUNTA($B$10:B22), "")</f>
         <v/>
@@ -1154,11 +1103,11 @@
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="11" t="str">
-        <f>IF(B22="","",VLOOKUP(LEFT(B22,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B22="","",VLOOKUP(MID(B22,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="str">
         <f>IF(B23&lt;&gt;"", COUNTA($B$10:B23), "")</f>
         <v/>
@@ -1166,11 +1115,11 @@
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="11" t="str">
-        <f>IF(B23="","",VLOOKUP(LEFT(B23,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B23="","",VLOOKUP(MID(B23,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="str">
         <f>IF(B24&lt;&gt;"", COUNTA($B$10:B24), "")</f>
         <v/>
@@ -1178,11 +1127,11 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="11" t="str">
-        <f>IF(B24="","",VLOOKUP(LEFT(B24,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B24="","",VLOOKUP(MID(B24,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="str">
         <f>IF(B25&lt;&gt;"", COUNTA($B$10:B25), "")</f>
         <v/>
@@ -1190,11 +1139,11 @@
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="11" t="str">
-        <f>IF(B25="","",VLOOKUP(LEFT(B25,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B25="","",VLOOKUP(MID(B25,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="str">
         <f>IF(B26&lt;&gt;"", COUNTA($B$10:B26), "")</f>
         <v/>
@@ -1202,11 +1151,11 @@
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="11" t="str">
-        <f>IF(B26="","",VLOOKUP(LEFT(B26,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B26="","",VLOOKUP(MID(B26,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="str">
         <f>IF(B27&lt;&gt;"", COUNTA($B$10:B27), "")</f>
         <v/>
@@ -1214,11 +1163,11 @@
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="11" t="str">
-        <f>IF(B27="","",VLOOKUP(LEFT(B27,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B27="","",VLOOKUP(MID(B27,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="str">
         <f>IF(B28&lt;&gt;"", COUNTA($B$10:B28), "")</f>
         <v/>
@@ -1226,11 +1175,11 @@
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="11" t="str">
-        <f>IF(B28="","",VLOOKUP(LEFT(B28,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B28="","",VLOOKUP(MID(B28,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="str">
         <f>IF(B29&lt;&gt;"", COUNTA($B$10:B29), "")</f>
         <v/>
@@ -1238,11 +1187,11 @@
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="11" t="str">
-        <f>IF(B29="","",VLOOKUP(LEFT(B29,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B29="","",VLOOKUP(MID(B29,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="str">
         <f>IF(B30&lt;&gt;"", COUNTA($B$10:B30), "")</f>
         <v/>
@@ -1250,11 +1199,11 @@
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="11" t="str">
-        <f>IF(B30="","",VLOOKUP(LEFT(B30,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B30="","",VLOOKUP(MID(B30,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="str">
         <f>IF(B31&lt;&gt;"", COUNTA($B$10:B31), "")</f>
         <v/>
@@ -1262,11 +1211,11 @@
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="11" t="str">
-        <f>IF(B31="","",VLOOKUP(LEFT(B31,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B31="","",VLOOKUP(MID(B31,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="str">
         <f>IF(B32&lt;&gt;"", COUNTA($B$10:B32), "")</f>
         <v/>
@@ -1274,11 +1223,11 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="11" t="str">
-        <f>IF(B32="","",VLOOKUP(LEFT(B32,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B32="","",VLOOKUP(MID(B32,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="str">
         <f>IF(B33&lt;&gt;"", COUNTA($B$10:B33), "")</f>
         <v/>
@@ -1286,11 +1235,11 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="11" t="str">
-        <f>IF(B33="","",VLOOKUP(LEFT(B33,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B33="","",VLOOKUP(MID(B33,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="str">
         <f>IF(B34&lt;&gt;"", COUNTA($B$10:B34), "")</f>
         <v/>
@@ -1298,11 +1247,11 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="11" t="str">
-        <f>IF(B34="","",VLOOKUP(LEFT(B34,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B34="","",VLOOKUP(MID(B34,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="str">
         <f>IF(B35&lt;&gt;"", COUNTA($B$10:B35), "")</f>
         <v/>
@@ -1310,11 +1259,11 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="11" t="str">
-        <f>IF(B35="","",VLOOKUP(LEFT(B35,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B35="","",VLOOKUP(MID(B35,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="str">
         <f>IF(B36&lt;&gt;"", COUNTA($B$10:B36), "")</f>
         <v/>
@@ -1322,11 +1271,11 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="11" t="str">
-        <f>IF(B36="","",VLOOKUP(LEFT(B36,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B36="","",VLOOKUP(MID(B36,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="str">
         <f>IF(B37&lt;&gt;"", COUNTA($B$10:B37), "")</f>
         <v/>
@@ -1334,11 +1283,11 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="11" t="str">
-        <f>IF(B37="","",VLOOKUP(LEFT(B37,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B37="","",VLOOKUP(MID(B37,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="str">
         <f>IF(B38&lt;&gt;"", COUNTA($B$10:B38), "")</f>
         <v/>
@@ -1346,1645 +1295,1644 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="11" t="str">
-        <f>IF(B38="","",VLOOKUP(LEFT(B38,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B38="","",VLOOKUP(MID(B38,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="str">
         <f>IF(B39&lt;&gt;"", COUNTA($B$10:B39), "")</f>
         <v/>
       </c>
       <c r="D39" s="11" t="str">
-        <f>IF(B39="","",VLOOKUP(LEFT(B39,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B39="","",VLOOKUP(MID(B39,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="str">
         <f>IF(B40&lt;&gt;"", COUNTA($B$10:B40), "")</f>
         <v/>
       </c>
       <c r="D40" s="11" t="str">
-        <f>IF(B40="","",VLOOKUP(LEFT(B40,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B40="","",VLOOKUP(MID(B40,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="str">
         <f>IF(B41&lt;&gt;"", COUNTA($B$10:B41), "")</f>
         <v/>
       </c>
       <c r="D41" s="11" t="str">
-        <f>IF(B41="","",VLOOKUP(LEFT(B41,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B41="","",VLOOKUP(MID(B41,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="str">
         <f>IF(B42&lt;&gt;"", COUNTA($B$10:B42), "")</f>
         <v/>
       </c>
       <c r="D42" s="11" t="str">
-        <f>IF(B42="","",VLOOKUP(LEFT(B42,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B42="","",VLOOKUP(MID(B42,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="str">
         <f>IF(B43&lt;&gt;"", COUNTA($B$10:B43), "")</f>
         <v/>
       </c>
       <c r="D43" s="11" t="str">
-        <f>IF(B43="","",VLOOKUP(LEFT(B43,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B43="","",VLOOKUP(MID(B43,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="str">
         <f>IF(B44&lt;&gt;"", COUNTA($B$10:B44), "")</f>
         <v/>
       </c>
       <c r="D44" s="11" t="str">
-        <f>IF(B44="","",VLOOKUP(LEFT(B44,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B44="","",VLOOKUP(MID(B44,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="str">
         <f>IF(B45&lt;&gt;"", COUNTA($B$10:B45), "")</f>
         <v/>
       </c>
       <c r="D45" s="11" t="str">
-        <f>IF(B45="","",VLOOKUP(LEFT(B45,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B45="","",VLOOKUP(MID(B45,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="str">
         <f>IF(B46&lt;&gt;"", COUNTA($B$10:B46), "")</f>
         <v/>
       </c>
       <c r="D46" s="11" t="str">
-        <f>IF(B46="","",VLOOKUP(LEFT(B46,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B46="","",VLOOKUP(MID(B46,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="str">
         <f>IF(B47&lt;&gt;"", COUNTA($B$10:B47), "")</f>
         <v/>
       </c>
       <c r="D47" s="11" t="str">
-        <f>IF(B47="","",VLOOKUP(LEFT(B47,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B47="","",VLOOKUP(MID(B47,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="str">
         <f>IF(B48&lt;&gt;"", COUNTA($B$10:B48), "")</f>
         <v/>
       </c>
       <c r="D48" s="11" t="str">
-        <f>IF(B48="","",VLOOKUP(LEFT(B48,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B48="","",VLOOKUP(MID(B48,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="str">
         <f>IF(B49&lt;&gt;"", COUNTA($B$10:B49), "")</f>
         <v/>
       </c>
       <c r="D49" s="11" t="str">
-        <f>IF(B49="","",VLOOKUP(LEFT(B49,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B49="","",VLOOKUP(MID(B49,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="str">
         <f>IF(B50&lt;&gt;"", COUNTA($B$10:B50), "")</f>
         <v/>
       </c>
       <c r="D50" s="11" t="str">
-        <f>IF(B50="","",VLOOKUP(LEFT(B50,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B50="","",VLOOKUP(MID(B50,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="str">
         <f>IF(B51&lt;&gt;"", COUNTA($B$10:B51), "")</f>
         <v/>
       </c>
       <c r="D51" s="11" t="str">
-        <f>IF(B51="","",VLOOKUP(LEFT(B51,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B51="","",VLOOKUP(MID(B51,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="str">
         <f>IF(B52&lt;&gt;"", COUNTA($B$10:B52), "")</f>
         <v/>
       </c>
       <c r="D52" s="11" t="str">
-        <f>IF(B52="","",VLOOKUP(LEFT(B52,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B52="","",VLOOKUP(MID(B52,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="str">
         <f>IF(B53&lt;&gt;"", COUNTA($B$10:B53), "")</f>
         <v/>
       </c>
       <c r="D53" s="11" t="str">
-        <f>IF(B53="","",VLOOKUP(LEFT(B53,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B53="","",VLOOKUP(MID(B53,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="str">
         <f>IF(B54&lt;&gt;"", COUNTA($B$10:B54), "")</f>
         <v/>
       </c>
       <c r="D54" s="11" t="str">
-        <f>IF(B54="","",VLOOKUP(LEFT(B54,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B54="","",VLOOKUP(MID(B54,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="str">
         <f>IF(B55&lt;&gt;"", COUNTA($B$10:B55), "")</f>
         <v/>
       </c>
       <c r="D55" s="11" t="str">
-        <f>IF(B55="","",VLOOKUP(LEFT(B55,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B55="","",VLOOKUP(MID(B55,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="str">
         <f>IF(B56&lt;&gt;"", COUNTA($B$10:B56), "")</f>
         <v/>
       </c>
       <c r="D56" s="11" t="str">
-        <f>IF(B56="","",VLOOKUP(LEFT(B56,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B56="","",VLOOKUP(MID(B56,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="str">
         <f>IF(B57&lt;&gt;"", COUNTA($B$10:B57), "")</f>
         <v/>
       </c>
       <c r="D57" s="11" t="str">
-        <f>IF(B57="","",VLOOKUP(LEFT(B57,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B57="","",VLOOKUP(MID(B57,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="str">
         <f>IF(B58&lt;&gt;"", COUNTA($B$10:B58), "")</f>
         <v/>
       </c>
       <c r="D58" s="11" t="str">
-        <f>IF(B58="","",VLOOKUP(LEFT(B58,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B58="","",VLOOKUP(MID(B58,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="str">
         <f>IF(B59&lt;&gt;"", COUNTA($B$10:B59), "")</f>
         <v/>
       </c>
       <c r="D59" s="11" t="str">
-        <f>IF(B59="","",VLOOKUP(LEFT(B59,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B59="","",VLOOKUP(MID(B59,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="str">
         <f>IF(B60&lt;&gt;"", COUNTA($B$10:B60), "")</f>
         <v/>
       </c>
       <c r="D60" s="11" t="str">
-        <f>IF(B60="","",VLOOKUP(LEFT(B60,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B60="","",VLOOKUP(MID(B60,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="str">
         <f>IF(B61&lt;&gt;"", COUNTA($B$10:B61), "")</f>
         <v/>
       </c>
       <c r="D61" s="11" t="str">
-        <f>IF(B61="","",VLOOKUP(LEFT(B61,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B61="","",VLOOKUP(MID(B61,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="str">
         <f>IF(B62&lt;&gt;"", COUNTA($B$10:B62), "")</f>
         <v/>
       </c>
       <c r="D62" s="11" t="str">
-        <f>IF(B62="","",VLOOKUP(LEFT(B62,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B62="","",VLOOKUP(MID(B62,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="str">
         <f>IF(B63&lt;&gt;"", COUNTA($B$10:B63), "")</f>
         <v/>
       </c>
       <c r="D63" s="11" t="str">
-        <f>IF(B63="","",VLOOKUP(LEFT(B63,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B63="","",VLOOKUP(MID(B63,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="str">
         <f>IF(B64&lt;&gt;"", COUNTA($B$10:B64), "")</f>
         <v/>
       </c>
       <c r="D64" s="11" t="str">
-        <f>IF(B64="","",VLOOKUP(LEFT(B64,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B64="","",VLOOKUP(MID(B64,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="str">
         <f>IF(B65&lt;&gt;"", COUNTA($B$10:B65), "")</f>
         <v/>
       </c>
       <c r="D65" s="11" t="str">
-        <f>IF(B65="","",VLOOKUP(LEFT(B65,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B65="","",VLOOKUP(MID(B65,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="str">
         <f>IF(B66&lt;&gt;"", COUNTA($B$10:B66), "")</f>
         <v/>
       </c>
       <c r="D66" s="11" t="str">
-        <f>IF(B66="","",VLOOKUP(LEFT(B66,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B66="","",VLOOKUP(MID(B66,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="str">
         <f>IF(B67&lt;&gt;"", COUNTA($B$10:B67), "")</f>
         <v/>
       </c>
       <c r="D67" s="11" t="str">
-        <f>IF(B67="","",VLOOKUP(LEFT(B67,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B67="","",VLOOKUP(MID(B67,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="str">
         <f>IF(B68&lt;&gt;"", COUNTA($B$10:B68), "")</f>
         <v/>
       </c>
       <c r="D68" s="11" t="str">
-        <f>IF(B68="","",VLOOKUP(LEFT(B68,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B68="","",VLOOKUP(MID(B68,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="str">
         <f>IF(B69&lt;&gt;"", COUNTA($B$10:B69), "")</f>
         <v/>
       </c>
       <c r="D69" s="11" t="str">
-        <f>IF(B69="","",VLOOKUP(LEFT(B69,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B69="","",VLOOKUP(MID(B69,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="str">
         <f>IF(B70&lt;&gt;"", COUNTA($B$10:B70), "")</f>
         <v/>
       </c>
       <c r="D70" s="11" t="str">
-        <f>IF(B70="","",VLOOKUP(LEFT(B70,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B70="","",VLOOKUP(MID(B70,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="str">
         <f>IF(B71&lt;&gt;"", COUNTA($B$10:B71), "")</f>
         <v/>
       </c>
       <c r="D71" s="11" t="str">
-        <f>IF(B71="","",VLOOKUP(LEFT(B71,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B71="","",VLOOKUP(MID(B71,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="str">
         <f>IF(B72&lt;&gt;"", COUNTA($B$10:B72), "")</f>
         <v/>
       </c>
       <c r="D72" s="11" t="str">
-        <f>IF(B72="","",VLOOKUP(LEFT(B72,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B72="","",VLOOKUP(MID(B72,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="str">
         <f>IF(B73&lt;&gt;"", COUNTA($B$10:B73), "")</f>
         <v/>
       </c>
       <c r="D73" s="11" t="str">
-        <f>IF(B73="","",VLOOKUP(LEFT(B73,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B73="","",VLOOKUP(MID(B73,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="str">
         <f>IF(B74&lt;&gt;"", COUNTA($B$10:B74), "")</f>
         <v/>
       </c>
       <c r="D74" s="11" t="str">
-        <f>IF(B74="","",VLOOKUP(LEFT(B74,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B74="","",VLOOKUP(MID(B74,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="str">
         <f>IF(B75&lt;&gt;"", COUNTA($B$10:B75), "")</f>
         <v/>
       </c>
       <c r="D75" s="11" t="str">
-        <f>IF(B75="","",VLOOKUP(LEFT(B75,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B75="","",VLOOKUP(MID(B75,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="str">
         <f>IF(B76&lt;&gt;"", COUNTA($B$10:B76), "")</f>
         <v/>
       </c>
       <c r="D76" s="11" t="str">
-        <f>IF(B76="","",VLOOKUP(LEFT(B76,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B76="","",VLOOKUP(MID(B76,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="str">
         <f>IF(B77&lt;&gt;"", COUNTA($B$10:B77), "")</f>
         <v/>
       </c>
       <c r="D77" s="11" t="str">
-        <f>IF(B77="","",VLOOKUP(LEFT(B77,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B77="","",VLOOKUP(MID(B77,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="str">
         <f>IF(B78&lt;&gt;"", COUNTA($B$10:B78), "")</f>
         <v/>
       </c>
       <c r="D78" s="11" t="str">
-        <f>IF(B78="","",VLOOKUP(LEFT(B78,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B78="","",VLOOKUP(MID(B78,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="str">
         <f>IF(B79&lt;&gt;"", COUNTA($B$10:B79), "")</f>
         <v/>
       </c>
       <c r="D79" s="11" t="str">
-        <f>IF(B79="","",VLOOKUP(LEFT(B79,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B79="","",VLOOKUP(MID(B79,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="str">
         <f>IF(B80&lt;&gt;"", COUNTA($B$10:B80), "")</f>
         <v/>
       </c>
       <c r="D80" s="11" t="str">
-        <f>IF(B80="","",VLOOKUP(LEFT(B80,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B80="","",VLOOKUP(MID(B80,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="str">
         <f>IF(B81&lt;&gt;"", COUNTA($B$10:B81), "")</f>
         <v/>
       </c>
       <c r="D81" s="11" t="str">
-        <f>IF(B81="","",VLOOKUP(LEFT(B81,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B81="","",VLOOKUP(MID(B81,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="str">
         <f>IF(B82&lt;&gt;"", COUNTA($B$10:B82), "")</f>
         <v/>
       </c>
       <c r="D82" s="11" t="str">
-        <f>IF(B82="","",VLOOKUP(LEFT(B82,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B82="","",VLOOKUP(MID(B82,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="str">
         <f>IF(B83&lt;&gt;"", COUNTA($B$10:B83), "")</f>
         <v/>
       </c>
       <c r="D83" s="11" t="str">
-        <f>IF(B83="","",VLOOKUP(LEFT(B83,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B83="","",VLOOKUP(MID(B83,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="str">
         <f>IF(B84&lt;&gt;"", COUNTA($B$10:B84), "")</f>
         <v/>
       </c>
       <c r="D84" s="11" t="str">
-        <f>IF(B84="","",VLOOKUP(LEFT(B84,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B84="","",VLOOKUP(MID(B84,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="str">
         <f>IF(B85&lt;&gt;"", COUNTA($B$10:B85), "")</f>
         <v/>
       </c>
       <c r="D85" s="11" t="str">
-        <f>IF(B85="","",VLOOKUP(LEFT(B85,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B85="","",VLOOKUP(MID(B85,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="str">
         <f>IF(B86&lt;&gt;"", COUNTA($B$10:B86), "")</f>
         <v/>
       </c>
       <c r="D86" s="11" t="str">
-        <f>IF(B86="","",VLOOKUP(LEFT(B86,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B86="","",VLOOKUP(MID(B86,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="str">
         <f>IF(B87&lt;&gt;"", COUNTA($B$10:B87), "")</f>
         <v/>
       </c>
       <c r="D87" s="11" t="str">
-        <f>IF(B87="","",VLOOKUP(LEFT(B87,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B87="","",VLOOKUP(MID(B87,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="str">
         <f>IF(B88&lt;&gt;"", COUNTA($B$10:B88), "")</f>
         <v/>
       </c>
       <c r="D88" s="11" t="str">
-        <f>IF(B88="","",VLOOKUP(LEFT(B88,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B88="","",VLOOKUP(MID(B88,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="str">
         <f>IF(B89&lt;&gt;"", COUNTA($B$10:B89), "")</f>
         <v/>
       </c>
       <c r="D89" s="11" t="str">
-        <f>IF(B89="","",VLOOKUP(LEFT(B89,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B89="","",VLOOKUP(MID(B89,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="str">
         <f>IF(B90&lt;&gt;"", COUNTA($B$10:B90), "")</f>
         <v/>
       </c>
       <c r="D90" s="11" t="str">
-        <f>IF(B90="","",VLOOKUP(LEFT(B90,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B90="","",VLOOKUP(MID(B90,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="str">
         <f>IF(B91&lt;&gt;"", COUNTA($B$10:B91), "")</f>
         <v/>
       </c>
       <c r="D91" s="11" t="str">
-        <f>IF(B91="","",VLOOKUP(LEFT(B91,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B91="","",VLOOKUP(MID(B91,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="str">
         <f>IF(B92&lt;&gt;"", COUNTA($B$10:B92), "")</f>
         <v/>
       </c>
       <c r="D92" s="11" t="str">
-        <f>IF(B92="","",VLOOKUP(LEFT(B92,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B92="","",VLOOKUP(MID(B92,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="str">
         <f>IF(B93&lt;&gt;"", COUNTA($B$10:B93), "")</f>
         <v/>
       </c>
       <c r="D93" s="11" t="str">
-        <f>IF(B93="","",VLOOKUP(LEFT(B93,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B93="","",VLOOKUP(MID(B93,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="str">
         <f>IF(B94&lt;&gt;"", COUNTA($B$10:B94), "")</f>
         <v/>
       </c>
       <c r="D94" s="11" t="str">
-        <f>IF(B94="","",VLOOKUP(LEFT(B94,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B94="","",VLOOKUP(MID(B94,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="str">
         <f>IF(B95&lt;&gt;"", COUNTA($B$10:B95), "")</f>
         <v/>
       </c>
       <c r="D95" s="11" t="str">
-        <f>IF(B95="","",VLOOKUP(LEFT(B95,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B95="","",VLOOKUP(MID(B95,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="str">
         <f>IF(B96&lt;&gt;"", COUNTA($B$10:B96), "")</f>
         <v/>
       </c>
       <c r="D96" s="11" t="str">
-        <f>IF(B96="","",VLOOKUP(LEFT(B96,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B96="","",VLOOKUP(MID(B96,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="str">
         <f>IF(B97&lt;&gt;"", COUNTA($B$10:B97), "")</f>
         <v/>
       </c>
       <c r="D97" s="11" t="str">
-        <f>IF(B97="","",VLOOKUP(LEFT(B97,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B97="","",VLOOKUP(MID(B97,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="str">
         <f>IF(B98&lt;&gt;"", COUNTA($B$10:B98), "")</f>
         <v/>
       </c>
       <c r="D98" s="11" t="str">
-        <f>IF(B98="","",VLOOKUP(LEFT(B98,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B98="","",VLOOKUP(MID(B98,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="str">
         <f>IF(B99&lt;&gt;"", COUNTA($B$10:B99), "")</f>
         <v/>
       </c>
       <c r="D99" s="11" t="str">
-        <f>IF(B99="","",VLOOKUP(LEFT(B99,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B99="","",VLOOKUP(MID(B99,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="str">
         <f>IF(B100&lt;&gt;"", COUNTA($B$10:B100), "")</f>
         <v/>
       </c>
       <c r="D100" s="11" t="str">
-        <f>IF(B100="","",VLOOKUP(LEFT(B100,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B100="","",VLOOKUP(MID(B100,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="str">
         <f>IF(B101&lt;&gt;"", COUNTA($B$10:B101), "")</f>
         <v/>
       </c>
       <c r="D101" s="11" t="str">
-        <f>IF(B101="","",VLOOKUP(LEFT(B101,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B101="","",VLOOKUP(MID(B101,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="str">
         <f>IF(B102&lt;&gt;"", COUNTA($B$10:B102), "")</f>
         <v/>
       </c>
       <c r="D102" s="11" t="str">
-        <f>IF(B102="","",VLOOKUP(LEFT(B102,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B102="","",VLOOKUP(MID(B102,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="str">
         <f>IF(B103&lt;&gt;"", COUNTA($B$10:B103), "")</f>
         <v/>
       </c>
       <c r="D103" s="11" t="str">
-        <f>IF(B103="","",VLOOKUP(LEFT(B103,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B103="","",VLOOKUP(MID(B103,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="str">
         <f>IF(B104&lt;&gt;"", COUNTA($B$10:B104), "")</f>
         <v/>
       </c>
       <c r="D104" s="11" t="str">
-        <f>IF(B104="","",VLOOKUP(LEFT(B104,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B104="","",VLOOKUP(MID(B104,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="str">
         <f>IF(B105&lt;&gt;"", COUNTA($B$10:B105), "")</f>
         <v/>
       </c>
       <c r="D105" s="11" t="str">
-        <f>IF(B105="","",VLOOKUP(LEFT(B105,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B105="","",VLOOKUP(MID(B105,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="str">
         <f>IF(B106&lt;&gt;"", COUNTA($B$10:B106), "")</f>
         <v/>
       </c>
       <c r="D106" s="11" t="str">
-        <f>IF(B106="","",VLOOKUP(LEFT(B106,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B106="","",VLOOKUP(MID(B106,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="str">
         <f>IF(B107&lt;&gt;"", COUNTA($B$10:B107), "")</f>
         <v/>
       </c>
       <c r="D107" s="11" t="str">
-        <f>IF(B107="","",VLOOKUP(LEFT(B107,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B107="","",VLOOKUP(MID(B107,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="str">
         <f>IF(B108&lt;&gt;"", COUNTA($B$10:B108), "")</f>
         <v/>
       </c>
       <c r="D108" s="11" t="str">
-        <f>IF(B108="","",VLOOKUP(LEFT(B108,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B108="","",VLOOKUP(MID(B108,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="str">
         <f>IF(B109&lt;&gt;"", COUNTA($B$10:B109), "")</f>
         <v/>
       </c>
       <c r="D109" s="11" t="str">
-        <f>IF(B109="","",VLOOKUP(LEFT(B109,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B109="","",VLOOKUP(MID(B109,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="str">
         <f>IF(B110&lt;&gt;"", COUNTA($B$10:B110), "")</f>
         <v/>
       </c>
       <c r="D110" s="11" t="str">
-        <f>IF(B110="","",VLOOKUP(LEFT(B110,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B110="","",VLOOKUP(MID(B110,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="str">
         <f>IF(B111&lt;&gt;"", COUNTA($B$10:B111), "")</f>
         <v/>
       </c>
       <c r="D111" s="11" t="str">
-        <f>IF(B111="","",VLOOKUP(LEFT(B111,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B111="","",VLOOKUP(MID(B111,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="str">
         <f>IF(B112&lt;&gt;"", COUNTA($B$10:B112), "")</f>
         <v/>
       </c>
       <c r="D112" s="11" t="str">
-        <f>IF(B112="","",VLOOKUP(LEFT(B112,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B112="","",VLOOKUP(MID(B112,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="str">
         <f>IF(B113&lt;&gt;"", COUNTA($B$10:B113), "")</f>
         <v/>
       </c>
       <c r="D113" s="11" t="str">
-        <f>IF(B113="","",VLOOKUP(LEFT(B113,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B113="","",VLOOKUP(MID(B113,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="str">
         <f>IF(B114&lt;&gt;"", COUNTA($B$10:B114), "")</f>
         <v/>
       </c>
       <c r="D114" s="11" t="str">
-        <f>IF(B114="","",VLOOKUP(LEFT(B114,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B114="","",VLOOKUP(MID(B114,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="str">
         <f>IF(B115&lt;&gt;"", COUNTA($B$10:B115), "")</f>
         <v/>
       </c>
       <c r="D115" s="11" t="str">
-        <f>IF(B115="","",VLOOKUP(LEFT(B115,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B115="","",VLOOKUP(MID(B115,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="str">
         <f>IF(B116&lt;&gt;"", COUNTA($B$10:B116), "")</f>
         <v/>
       </c>
       <c r="D116" s="11" t="str">
-        <f>IF(B116="","",VLOOKUP(LEFT(B116,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B116="","",VLOOKUP(MID(B116,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="str">
         <f>IF(B117&lt;&gt;"", COUNTA($B$10:B117), "")</f>
         <v/>
       </c>
       <c r="D117" s="11" t="str">
-        <f>IF(B117="","",VLOOKUP(LEFT(B117,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B117="","",VLOOKUP(MID(B117,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="str">
         <f>IF(B118&lt;&gt;"", COUNTA($B$10:B118), "")</f>
         <v/>
       </c>
       <c r="D118" s="11" t="str">
-        <f>IF(B118="","",VLOOKUP(LEFT(B118,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B118="","",VLOOKUP(MID(B118,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="str">
         <f>IF(B119&lt;&gt;"", COUNTA($B$10:B119), "")</f>
         <v/>
       </c>
       <c r="D119" s="11" t="str">
-        <f>IF(B119="","",VLOOKUP(LEFT(B119,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B119="","",VLOOKUP(MID(B119,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="str">
         <f>IF(B120&lt;&gt;"", COUNTA($B$10:B120), "")</f>
         <v/>
       </c>
       <c r="D120" s="11" t="str">
-        <f>IF(B120="","",VLOOKUP(LEFT(B120,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B120="","",VLOOKUP(MID(B120,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="str">
         <f>IF(B121&lt;&gt;"", COUNTA($B$10:B121), "")</f>
         <v/>
       </c>
       <c r="D121" s="11" t="str">
-        <f>IF(B121="","",VLOOKUP(LEFT(B121,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B121="","",VLOOKUP(MID(B121,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="str">
         <f>IF(B122&lt;&gt;"", COUNTA($B$10:B122), "")</f>
         <v/>
       </c>
       <c r="D122" s="11" t="str">
-        <f>IF(B122="","",VLOOKUP(LEFT(B122,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B122="","",VLOOKUP(MID(B122,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="str">
         <f>IF(B123&lt;&gt;"", COUNTA($B$10:B123), "")</f>
         <v/>
       </c>
       <c r="D123" s="11" t="str">
-        <f>IF(B123="","",VLOOKUP(LEFT(B123,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B123="","",VLOOKUP(MID(B123,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="str">
         <f>IF(B124&lt;&gt;"", COUNTA($B$10:B124), "")</f>
         <v/>
       </c>
       <c r="D124" s="11" t="str">
-        <f>IF(B124="","",VLOOKUP(LEFT(B124,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B124="","",VLOOKUP(MID(B124,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="str">
         <f>IF(B125&lt;&gt;"", COUNTA($B$10:B125), "")</f>
         <v/>
       </c>
       <c r="D125" s="11" t="str">
-        <f>IF(B125="","",VLOOKUP(LEFT(B125,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B125="","",VLOOKUP(MID(B125,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="str">
         <f>IF(B126&lt;&gt;"", COUNTA($B$10:B126), "")</f>
         <v/>
       </c>
       <c r="D126" s="11" t="str">
-        <f>IF(B126="","",VLOOKUP(LEFT(B126,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B126="","",VLOOKUP(MID(B126,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="str">
         <f>IF(B127&lt;&gt;"", COUNTA($B$10:B127), "")</f>
         <v/>
       </c>
       <c r="D127" s="11" t="str">
-        <f>IF(B127="","",VLOOKUP(LEFT(B127,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B127="","",VLOOKUP(MID(B127,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="str">
         <f>IF(B128&lt;&gt;"", COUNTA($B$10:B128), "")</f>
         <v/>
       </c>
       <c r="D128" s="11" t="str">
-        <f>IF(B128="","",VLOOKUP(LEFT(B128,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B128="","",VLOOKUP(MID(B128,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="str">
         <f>IF(B129&lt;&gt;"", COUNTA($B$10:B129), "")</f>
         <v/>
       </c>
       <c r="D129" s="11" t="str">
-        <f>IF(B129="","",VLOOKUP(LEFT(B129,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B129="","",VLOOKUP(MID(B129,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="str">
         <f>IF(B130&lt;&gt;"", COUNTA($B$10:B130), "")</f>
         <v/>
       </c>
       <c r="D130" s="11" t="str">
-        <f>IF(B130="","",VLOOKUP(LEFT(B130,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B130="","",VLOOKUP(MID(B130,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="str">
         <f>IF(B131&lt;&gt;"", COUNTA($B$10:B131), "")</f>
         <v/>
       </c>
       <c r="D131" s="11" t="str">
-        <f>IF(B131="","",VLOOKUP(LEFT(B131,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B131="","",VLOOKUP(MID(B131,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="12" t="str">
         <f>IF(B132&lt;&gt;"", COUNTA($B$10:B132), "")</f>
         <v/>
       </c>
       <c r="D132" s="11" t="str">
-        <f>IF(B132="","",VLOOKUP(LEFT(B132,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B132="","",VLOOKUP(MID(B132,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="12" t="str">
         <f>IF(B133&lt;&gt;"", COUNTA($B$10:B133), "")</f>
         <v/>
       </c>
       <c r="D133" s="11" t="str">
-        <f>IF(B133="","",VLOOKUP(LEFT(B133,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B133="","",VLOOKUP(MID(B133,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="str">
         <f>IF(B134&lt;&gt;"", COUNTA($B$10:B134), "")</f>
         <v/>
       </c>
       <c r="D134" s="11" t="str">
-        <f>IF(B134="","",VLOOKUP(LEFT(B134,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B134="","",VLOOKUP(MID(B134,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="12" t="str">
         <f>IF(B135&lt;&gt;"", COUNTA($B$10:B135), "")</f>
         <v/>
       </c>
       <c r="D135" s="11" t="str">
-        <f>IF(B135="","",VLOOKUP(LEFT(B135,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B135="","",VLOOKUP(MID(B135,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="12" t="str">
         <f>IF(B136&lt;&gt;"", COUNTA($B$10:B136), "")</f>
         <v/>
       </c>
       <c r="D136" s="11" t="str">
-        <f>IF(B136="","",VLOOKUP(LEFT(B136,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B136="","",VLOOKUP(MID(B136,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="12" t="str">
         <f>IF(B137&lt;&gt;"", COUNTA($B$10:B137), "")</f>
         <v/>
       </c>
       <c r="D137" s="11" t="str">
-        <f>IF(B137="","",VLOOKUP(LEFT(B137,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B137="","",VLOOKUP(MID(B137,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="str">
         <f>IF(B138&lt;&gt;"", COUNTA($B$10:B138), "")</f>
         <v/>
       </c>
       <c r="D138" s="11" t="str">
-        <f>IF(B138="","",VLOOKUP(LEFT(B138,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B138="","",VLOOKUP(MID(B138,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="12" t="str">
         <f>IF(B139&lt;&gt;"", COUNTA($B$10:B139), "")</f>
         <v/>
       </c>
       <c r="D139" s="11" t="str">
-        <f>IF(B139="","",VLOOKUP(LEFT(B139,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B139="","",VLOOKUP(MID(B139,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="12" t="str">
         <f>IF(B140&lt;&gt;"", COUNTA($B$10:B140), "")</f>
         <v/>
       </c>
       <c r="D140" s="11" t="str">
-        <f>IF(B140="","",VLOOKUP(LEFT(B140,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B140="","",VLOOKUP(MID(B140,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="str">
         <f>IF(B141&lt;&gt;"", COUNTA($B$10:B141), "")</f>
         <v/>
       </c>
       <c r="D141" s="11" t="str">
-        <f>IF(B141="","",VLOOKUP(LEFT(B141,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B141="","",VLOOKUP(MID(B141,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="str">
         <f>IF(B142&lt;&gt;"", COUNTA($B$10:B142), "")</f>
         <v/>
       </c>
       <c r="D142" s="11" t="str">
-        <f>IF(B142="","",VLOOKUP(LEFT(B142,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B142="","",VLOOKUP(MID(B142,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="str">
         <f>IF(B143&lt;&gt;"", COUNTA($B$10:B143), "")</f>
         <v/>
       </c>
       <c r="D143" s="11" t="str">
-        <f>IF(B143="","",VLOOKUP(LEFT(B143,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B143="","",VLOOKUP(MID(B143,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="str">
         <f>IF(B144&lt;&gt;"", COUNTA($B$10:B144), "")</f>
         <v/>
       </c>
       <c r="D144" s="11" t="str">
-        <f>IF(B144="","",VLOOKUP(LEFT(B144,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B144="","",VLOOKUP(MID(B144,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="str">
         <f>IF(B145&lt;&gt;"", COUNTA($B$10:B145), "")</f>
         <v/>
       </c>
       <c r="D145" s="11" t="str">
-        <f>IF(B145="","",VLOOKUP(LEFT(B145,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B145="","",VLOOKUP(MID(B145,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="str">
         <f>IF(B146&lt;&gt;"", COUNTA($B$10:B146), "")</f>
         <v/>
       </c>
       <c r="D146" s="11" t="str">
-        <f>IF(B146="","",VLOOKUP(LEFT(B146,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B146="","",VLOOKUP(MID(B146,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="str">
         <f>IF(B147&lt;&gt;"", COUNTA($B$10:B147), "")</f>
         <v/>
       </c>
       <c r="D147" s="11" t="str">
-        <f>IF(B147="","",VLOOKUP(LEFT(B147,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B147="","",VLOOKUP(MID(B147,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="str">
         <f>IF(B148&lt;&gt;"", COUNTA($B$10:B148), "")</f>
         <v/>
       </c>
       <c r="D148" s="11" t="str">
-        <f>IF(B148="","",VLOOKUP(LEFT(B148,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B148="","",VLOOKUP(MID(B148,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="12" t="str">
         <f>IF(B149&lt;&gt;"", COUNTA($B$10:B149), "")</f>
         <v/>
       </c>
       <c r="D149" s="11" t="str">
-        <f>IF(B149="","",VLOOKUP(LEFT(B149,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B149="","",VLOOKUP(MID(B149,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="12" t="str">
         <f>IF(B150&lt;&gt;"", COUNTA($B$10:B150), "")</f>
         <v/>
       </c>
       <c r="D150" s="11" t="str">
-        <f>IF(B150="","",VLOOKUP(LEFT(B150,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B150="","",VLOOKUP(MID(B150,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="12" t="str">
         <f>IF(B151&lt;&gt;"", COUNTA($B$10:B151), "")</f>
         <v/>
       </c>
       <c r="D151" s="11" t="str">
-        <f>IF(B151="","",VLOOKUP(LEFT(B151,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B151="","",VLOOKUP(MID(B151,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="12" t="str">
         <f>IF(B152&lt;&gt;"", COUNTA($B$10:B152), "")</f>
         <v/>
       </c>
       <c r="D152" s="11" t="str">
-        <f>IF(B152="","",VLOOKUP(LEFT(B152,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B152="","",VLOOKUP(MID(B152,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="12" t="str">
         <f>IF(B153&lt;&gt;"", COUNTA($B$10:B153), "")</f>
         <v/>
       </c>
       <c r="D153" s="11" t="str">
-        <f>IF(B153="","",VLOOKUP(LEFT(B153,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B153="","",VLOOKUP(MID(B153,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="12" t="str">
         <f>IF(B154&lt;&gt;"", COUNTA($B$10:B154), "")</f>
         <v/>
       </c>
       <c r="D154" s="11" t="str">
-        <f>IF(B154="","",VLOOKUP(LEFT(B154,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B154="","",VLOOKUP(MID(B154,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="12" t="str">
         <f>IF(B155&lt;&gt;"", COUNTA($B$10:B155), "")</f>
         <v/>
       </c>
       <c r="D155" s="11" t="str">
-        <f>IF(B155="","",VLOOKUP(LEFT(B155,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B155="","",VLOOKUP(MID(B155,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="12" t="str">
         <f>IF(B156&lt;&gt;"", COUNTA($B$10:B156), "")</f>
         <v/>
       </c>
       <c r="D156" s="11" t="str">
-        <f>IF(B156="","",VLOOKUP(LEFT(B156,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B156="","",VLOOKUP(MID(B156,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="12" t="str">
         <f>IF(B157&lt;&gt;"", COUNTA($B$10:B157), "")</f>
         <v/>
       </c>
       <c r="D157" s="11" t="str">
-        <f>IF(B157="","",VLOOKUP(LEFT(B157,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B157="","",VLOOKUP(MID(B157,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="12" t="str">
         <f>IF(B158&lt;&gt;"", COUNTA($B$10:B158), "")</f>
         <v/>
       </c>
       <c r="D158" s="11" t="str">
-        <f>IF(B158="","",VLOOKUP(LEFT(B158,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B158="","",VLOOKUP(MID(B158,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="12" t="str">
         <f>IF(B159&lt;&gt;"", COUNTA($B$10:B159), "")</f>
         <v/>
       </c>
       <c r="D159" s="11" t="str">
-        <f>IF(B159="","",VLOOKUP(LEFT(B159,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B159="","",VLOOKUP(MID(B159,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="12" t="str">
         <f>IF(B160&lt;&gt;"", COUNTA($B$10:B160), "")</f>
         <v/>
       </c>
       <c r="D160" s="11" t="str">
-        <f>IF(B160="","",VLOOKUP(LEFT(B160,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B160="","",VLOOKUP(MID(B160,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="12" t="str">
         <f>IF(B161&lt;&gt;"", COUNTA($B$10:B161), "")</f>
         <v/>
       </c>
       <c r="D161" s="11" t="str">
-        <f>IF(B161="","",VLOOKUP(LEFT(B161,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B161="","",VLOOKUP(MID(B161,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="12" t="str">
         <f>IF(B162&lt;&gt;"", COUNTA($B$10:B162), "")</f>
         <v/>
       </c>
       <c r="D162" s="11" t="str">
-        <f>IF(B162="","",VLOOKUP(LEFT(B162,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B162="","",VLOOKUP(MID(B162,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="str">
         <f>IF(B163&lt;&gt;"", COUNTA($B$10:B163), "")</f>
         <v/>
       </c>
       <c r="D163" s="11" t="str">
-        <f>IF(B163="","",VLOOKUP(LEFT(B163,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B163="","",VLOOKUP(MID(B163,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="12" t="str">
         <f>IF(B164&lt;&gt;"", COUNTA($B$10:B164), "")</f>
         <v/>
       </c>
       <c r="D164" s="11" t="str">
-        <f>IF(B164="","",VLOOKUP(LEFT(B164,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B164="","",VLOOKUP(MID(B164,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="12" t="str">
         <f>IF(B165&lt;&gt;"", COUNTA($B$10:B165), "")</f>
         <v/>
       </c>
       <c r="D165" s="11" t="str">
-        <f>IF(B165="","",VLOOKUP(LEFT(B165,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B165="","",VLOOKUP(MID(B165,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="12" t="str">
         <f>IF(B166&lt;&gt;"", COUNTA($B$10:B166), "")</f>
         <v/>
       </c>
       <c r="D166" s="11" t="str">
-        <f>IF(B166="","",VLOOKUP(LEFT(B166,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B166="","",VLOOKUP(MID(B166,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="str">
         <f>IF(B167&lt;&gt;"", COUNTA($B$10:B167), "")</f>
         <v/>
       </c>
       <c r="D167" s="11" t="str">
-        <f>IF(B167="","",VLOOKUP(LEFT(B167,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B167="","",VLOOKUP(MID(B167,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="12" t="str">
         <f>IF(B168&lt;&gt;"", COUNTA($B$10:B168), "")</f>
         <v/>
       </c>
       <c r="D168" s="11" t="str">
-        <f>IF(B168="","",VLOOKUP(LEFT(B168,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B168="","",VLOOKUP(MID(B168,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="12" t="str">
         <f>IF(B169&lt;&gt;"", COUNTA($B$10:B169), "")</f>
         <v/>
       </c>
       <c r="D169" s="11" t="str">
-        <f>IF(B169="","",VLOOKUP(LEFT(B169,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B169="","",VLOOKUP(MID(B169,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="12" t="str">
         <f>IF(B170&lt;&gt;"", COUNTA($B$10:B170), "")</f>
         <v/>
       </c>
       <c r="D170" s="11" t="str">
-        <f>IF(B170="","",VLOOKUP(LEFT(B170,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B170="","",VLOOKUP(MID(B170,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="12" t="str">
         <f>IF(B171&lt;&gt;"", COUNTA($B$10:B171), "")</f>
         <v/>
       </c>
       <c r="D171" s="11" t="str">
-        <f>IF(B171="","",VLOOKUP(LEFT(B171,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B171="","",VLOOKUP(MID(B171,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="12" t="str">
         <f>IF(B172&lt;&gt;"", COUNTA($B$10:B172), "")</f>
         <v/>
       </c>
       <c r="D172" s="11" t="str">
-        <f>IF(B172="","",VLOOKUP(LEFT(B172,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B172="","",VLOOKUP(MID(B172,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="12" t="str">
         <f>IF(B173&lt;&gt;"", COUNTA($B$10:B173), "")</f>
         <v/>
       </c>
       <c r="D173" s="11" t="str">
-        <f>IF(B173="","",VLOOKUP(LEFT(B173,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B173="","",VLOOKUP(MID(B173,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="12" t="str">
         <f>IF(B174&lt;&gt;"", COUNTA($B$10:B174), "")</f>
         <v/>
       </c>
       <c r="D174" s="11" t="str">
-        <f>IF(B174="","",VLOOKUP(LEFT(B174,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B174="","",VLOOKUP(MID(B174,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="12" t="str">
         <f>IF(B175&lt;&gt;"", COUNTA($B$10:B175), "")</f>
         <v/>
       </c>
       <c r="D175" s="11" t="str">
-        <f>IF(B175="","",VLOOKUP(LEFT(B175,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B175="","",VLOOKUP(MID(B175,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="12" t="str">
         <f>IF(B176&lt;&gt;"", COUNTA($B$10:B176), "")</f>
         <v/>
       </c>
       <c r="D176" s="11" t="str">
-        <f>IF(B176="","",VLOOKUP(LEFT(B176,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B176="","",VLOOKUP(MID(B176,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="12" t="str">
         <f>IF(B177&lt;&gt;"", COUNTA($B$10:B177), "")</f>
         <v/>
       </c>
       <c r="D177" s="11" t="str">
-        <f>IF(B177="","",VLOOKUP(LEFT(B177,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B177="","",VLOOKUP(MID(B177,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="str">
         <f>IF(B178&lt;&gt;"", COUNTA($B$10:B178), "")</f>
         <v/>
       </c>
       <c r="D178" s="11" t="str">
-        <f>IF(B178="","",VLOOKUP(LEFT(B178,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B178="","",VLOOKUP(MID(B178,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="12" t="str">
         <f>IF(B179&lt;&gt;"", COUNTA($B$10:B179), "")</f>
         <v/>
       </c>
       <c r="D179" s="11" t="str">
-        <f>IF(B179="","",VLOOKUP(LEFT(B179,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B179="","",VLOOKUP(MID(B179,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="12" t="str">
         <f>IF(B180&lt;&gt;"", COUNTA($B$10:B180), "")</f>
         <v/>
       </c>
       <c r="D180" s="11" t="str">
-        <f>IF(B180="","",VLOOKUP(LEFT(B180,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B180="","",VLOOKUP(MID(B180,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="12" t="str">
         <f>IF(B181&lt;&gt;"", COUNTA($B$10:B181), "")</f>
         <v/>
       </c>
       <c r="D181" s="11" t="str">
-        <f>IF(B181="","",VLOOKUP(LEFT(B181,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B181="","",VLOOKUP(MID(B181,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="str">
         <f>IF(B182&lt;&gt;"", COUNTA($B$10:B182), "")</f>
         <v/>
       </c>
       <c r="D182" s="11" t="str">
-        <f>IF(B182="","",VLOOKUP(LEFT(B182,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B182="","",VLOOKUP(MID(B182,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="12" t="str">
         <f>IF(B183&lt;&gt;"", COUNTA($B$10:B183), "")</f>
         <v/>
       </c>
       <c r="D183" s="11" t="str">
-        <f>IF(B183="","",VLOOKUP(LEFT(B183,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B183="","",VLOOKUP(MID(B183,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="12" t="str">
         <f>IF(B184&lt;&gt;"", COUNTA($B$10:B184), "")</f>
         <v/>
       </c>
       <c r="D184" s="11" t="str">
-        <f>IF(B184="","",VLOOKUP(LEFT(B184,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B184="","",VLOOKUP(MID(B184,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="12" t="str">
         <f>IF(B185&lt;&gt;"", COUNTA($B$10:B185), "")</f>
         <v/>
       </c>
       <c r="D185" s="11" t="str">
-        <f>IF(B185="","",VLOOKUP(LEFT(B185,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B185="","",VLOOKUP(MID(B185,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="str">
         <f>IF(B186&lt;&gt;"", COUNTA($B$10:B186), "")</f>
         <v/>
       </c>
       <c r="D186" s="11" t="str">
-        <f>IF(B186="","",VLOOKUP(LEFT(B186,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B186="","",VLOOKUP(MID(B186,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="12" t="str">
         <f>IF(B187&lt;&gt;"", COUNTA($B$10:B187), "")</f>
         <v/>
       </c>
       <c r="D187" s="11" t="str">
-        <f>IF(B187="","",VLOOKUP(LEFT(B187,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B187="","",VLOOKUP(MID(B187,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="12" t="str">
         <f>IF(B188&lt;&gt;"", COUNTA($B$10:B188), "")</f>
         <v/>
       </c>
       <c r="D188" s="11" t="str">
-        <f>IF(B188="","",VLOOKUP(LEFT(B188,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B188="","",VLOOKUP(MID(B188,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="12" t="str">
         <f>IF(B189&lt;&gt;"", COUNTA($B$10:B189), "")</f>
         <v/>
       </c>
       <c r="D189" s="11" t="str">
-        <f>IF(B189="","",VLOOKUP(LEFT(B189,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B189="","",VLOOKUP(MID(B189,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="12" t="str">
         <f>IF(B190&lt;&gt;"", COUNTA($B$10:B190), "")</f>
         <v/>
       </c>
       <c r="D190" s="11" t="str">
-        <f>IF(B190="","",VLOOKUP(LEFT(B190,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B190="","",VLOOKUP(MID(B190,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="12" t="str">
         <f>IF(B191&lt;&gt;"", COUNTA($B$10:B191), "")</f>
         <v/>
       </c>
       <c r="D191" s="11" t="str">
-        <f>IF(B191="","",VLOOKUP(LEFT(B191,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B191="","",VLOOKUP(MID(B191,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="12" t="str">
         <f>IF(B192&lt;&gt;"", COUNTA($B$10:B192), "")</f>
         <v/>
       </c>
       <c r="D192" s="11" t="str">
-        <f>IF(B192="","",VLOOKUP(LEFT(B192,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B192="","",VLOOKUP(MID(B192,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="12" t="str">
         <f>IF(B193&lt;&gt;"", COUNTA($B$10:B193), "")</f>
         <v/>
       </c>
       <c r="D193" s="11" t="str">
-        <f>IF(B193="","",VLOOKUP(LEFT(B193,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B193="","",VLOOKUP(MID(B193,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="12" t="str">
         <f>IF(B194&lt;&gt;"", COUNTA($B$10:B194), "")</f>
         <v/>
       </c>
       <c r="D194" s="11" t="str">
-        <f>IF(B194="","",VLOOKUP(LEFT(B194,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B194="","",VLOOKUP(MID(B194,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="12" t="str">
         <f>IF(B195&lt;&gt;"", COUNTA($B$10:B195), "")</f>
         <v/>
       </c>
       <c r="D195" s="11" t="str">
-        <f>IF(B195="","",VLOOKUP(LEFT(B195,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B195="","",VLOOKUP(MID(B195,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="12" t="str">
         <f>IF(B196&lt;&gt;"", COUNTA($B$10:B196), "")</f>
         <v/>
       </c>
       <c r="D196" s="11" t="str">
-        <f>IF(B196="","",VLOOKUP(LEFT(B196,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B196="","",VLOOKUP(MID(B196,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="12" t="str">
         <f>IF(B197&lt;&gt;"", COUNTA($B$10:B197), "")</f>
         <v/>
       </c>
       <c r="D197" s="11" t="str">
-        <f>IF(B197="","",VLOOKUP(LEFT(B197,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B197="","",VLOOKUP(MID(B197,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="12" t="str">
         <f>IF(B198&lt;&gt;"", COUNTA($B$10:B198), "")</f>
         <v/>
       </c>
       <c r="D198" s="11" t="str">
-        <f>IF(B198="","",VLOOKUP(LEFT(B198,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B198="","",VLOOKUP(MID(B198,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="12" t="str">
         <f>IF(B199&lt;&gt;"", COUNTA($B$10:B199), "")</f>
         <v/>
       </c>
       <c r="D199" s="11" t="str">
-        <f>IF(B199="","",VLOOKUP(LEFT(B199,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+        <f>IF(B199="","",VLOOKUP(MID(B199,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="12" t="str">
         <f>IF(B200&lt;&gt;"", COUNTA($B$10:B200), "")</f>
         <v/>
       </c>
       <c r="D200" s="11" t="str">
-        <f>IF(B200="","",VLOOKUP(LEFT(B200,3),'[1]Bảng đơn vị'!A:B,2,FALSE))</f>
+        <f>IF(B200="","",VLOOKUP(MID(B200,5,3),'Bảng đơn vị'!A:B,2,FALSE))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="FnhYZvCHk2USRnQae0rBRqK7UZD8XjsRr06VbJFAVqEJwhCcII/ZCGVWDODTZKrZe3HWcfp4oIWd6hfmQVeSZw==" saltValue="GHFpVQWWwdZWgXxP5B709w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="A9:C200">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="A9:D9">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>A9&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C198 A11:A200">
+  <conditionalFormatting sqref="B16:C198">
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>A11&lt;&gt;""</formula>
+      <formula>B16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>D9&lt;&gt;""</formula>
+  <conditionalFormatting sqref="C10:C15 A10:A200 A16:C200">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>A10&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D200">
@@ -3010,13 +2958,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -3024,7 +2972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
@@ -3032,7 +2980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -3040,7 +2988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -3048,7 +2996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
